--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1717441.146302151</v>
+        <v>1745714.488047661</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>558908.7136639267</v>
+        <v>215624.1221399384</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6194455.330229507</v>
+        <v>6194455.330229509</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8857481.835340729</v>
+        <v>8857481.835340731</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>159.4368283879286</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>159.5623709710783</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>99.34508049624269</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>156.1271626621472</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>254.4950516443638</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>30.3503269845386</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>126.4869277144714</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>174.6106922597749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>237.1298127151653</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>144.2140209406074</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>134.3208427877754</v>
       </c>
       <c r="E10" t="n">
-        <v>124.2196940949806</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>117.8516546082732</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.608810155027</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>104.9042708965086</v>
       </c>
     </row>
     <row r="12">
@@ -1549,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>34.9377706442593</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>16.96831782410011</v>
       </c>
       <c r="R13" t="n">
         <v>140.1386670296631</v>
@@ -1582,7 +1582,7 @@
         <v>224.4149140454817</v>
       </c>
       <c r="U13" t="n">
-        <v>212.338122623478</v>
+        <v>160.4320341551185</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1607,25 +1607,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>175.9247401819185</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.608810155027</v>
       </c>
       <c r="I14" t="n">
-        <v>117.1563356486233</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>34.15171357119077</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T14" t="n">
         <v>215.03180661936</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.96163415557797</v>
+        <v>38.96163415557798</v>
       </c>
       <c r="S15" t="n">
         <v>153.3753223480049</v>
@@ -1774,19 +1774,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>141.8173540698645</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>154.8803628811029</v>
+        <v>29.83150426254509</v>
       </c>
       <c r="I16" t="n">
         <v>130.6005298925735</v>
       </c>
       <c r="J16" t="n">
-        <v>34.93777064425929</v>
+        <v>34.9377706442593</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>140.1386670296631</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>209.6159497203184</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>224.4149140454817</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1844,25 +1844,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>346.3916284793149</v>
       </c>
       <c r="G17" t="n">
-        <v>54.07291418143402</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H17" t="n">
         <v>320.608810155027</v>
       </c>
       <c r="I17" t="n">
-        <v>139.4561258631989</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>34.15171357119075</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U17" t="n">
         <v>251.1982803354592</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>107.0281785946854</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>140.1386670296631</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>209.6159497203184</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2739569047956</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>150.4790797641642</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>332.9352203955157</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.608810155027</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,13 +2126,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>34.15171357119075</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T20" t="n">
-        <v>173.9030169985413</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U20" t="n">
         <v>251.1982803354592</v>
@@ -2144,10 +2144,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>98.5017412664951</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>23.99215577274763</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>193.4826926376819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2327,16 +2327,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.608810155027</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>139.4561258631989</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>34.15171357119077</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>174.7914126729216</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>38.96163415557798</v>
+        <v>38.96163415557797</v>
       </c>
       <c r="S24" t="n">
         <v>153.3753223480049</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2739569047956</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>213.7106981775548</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.8013667705887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.4605803604186</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>116.3841695221506</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,25 +2600,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>34.15171357119075</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>39.27514239548279</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>38.96163415557798</v>
+        <v>38.96163415557797</v>
       </c>
       <c r="S27" t="n">
         <v>153.3753223480049</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>90.05534103196106</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>14.62383366493245</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2798,19 +2798,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.435883797847953</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>30.54075053398952</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>38.96163415557798</v>
+        <v>38.96163415557797</v>
       </c>
       <c r="S30" t="n">
         <v>153.3753223480049</v>
@@ -2965,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>29.83150426254509</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>130.6005298925735</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>34.9377706442593</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2992,22 +2992,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.96831782410011</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>140.1386670296631</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>209.6159497203184</v>
+        <v>23.68113914483619</v>
       </c>
       <c r="T31" t="n">
         <v>224.4149140454817</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2739569047956</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.4605803604186</v>
@@ -3047,7 +3047,7 @@
         <v>320.608810155027</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>34.15171357119075</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T32" t="n">
-        <v>196.1505433276667</v>
+        <v>187.9363057616905</v>
       </c>
       <c r="U32" t="n">
         <v>251.1982803354592</v>
@@ -3092,10 +3092,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>38.96163415557798</v>
+        <v>38.96163415557797</v>
       </c>
       <c r="S33" t="n">
         <v>153.3753223480049</v>
@@ -3187,28 +3187,28 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>7.069328254127217</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>154.8803628811029</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>130.6005298925735</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>34.9377706442593</v>
+        <v>34.93777064425929</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2739569047956</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>79.46445141916392</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,13 +3266,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3311,28 +3311,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>34.15171357119075</v>
       </c>
       <c r="S35" t="n">
         <v>167.0419134231436</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>215.03180661936</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>181.320465678237</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.58975180071717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.96163415557798</v>
+        <v>38.96163415557797</v>
       </c>
       <c r="S36" t="n">
         <v>153.3753223480049</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>209.6159497203184</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>247.8470117585225</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>11.22824906596292</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>34.15171357119075</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>105.8721810998183</v>
       </c>
       <c r="T38" t="n">
         <v>215.03180661936</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V38" t="n">
-        <v>89.93369394425781</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>38.96163415557798</v>
+        <v>38.96163415557797</v>
       </c>
       <c r="S39" t="n">
         <v>153.3753223480049</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.20283274834595</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>209.6159497203184</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>224.4149140454817</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2739569047956</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>220.8441987862815</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>213.5618860269391</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,25 +3785,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>34.15171357119077</v>
+        <v>34.15171357119075</v>
       </c>
       <c r="S41" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>260.959831532644</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.96163415557798</v>
+        <v>38.96163415557797</v>
       </c>
       <c r="S42" t="n">
         <v>153.3753223480049</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>115.6290771333907</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>68.28965015462357</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.96831782410011</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>209.6159497203184</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2739569047956</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3977,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>34.15171357119075</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>215.03180661936</v>
+        <v>173.9030169985413</v>
       </c>
       <c r="U44" t="n">
         <v>251.1982803354592</v>
@@ -4037,13 +4037,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>92.02113336814348</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>23.99215577274785</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,19 +4144,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.164651077378</v>
+        <v>3.792733237596299</v>
       </c>
       <c r="H46" t="n">
         <v>154.8803628811029</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>130.6005298925735</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>34.93777064425929</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2268.654643287636</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2535.974978926224</v>
       </c>
       <c r="Y2" t="n">
-        <v>2268.654643287636</v>
+        <v>2535.974978926224</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>336.2769833124028</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1525.74665604171</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C5" t="n">
-        <v>1525.74665604171</v>
+        <v>1271.815289262514</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>913.5495906557635</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278602</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017522</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>551.7545475803992</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>382.8183646524922</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>382.8183646524922</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="E7" t="n">
-        <v>382.8183646524922</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>396.3638799638587</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>227.3640797021911</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>227.3640797021911</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>551.7545475803992</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>551.7545475803992</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>551.7545475803992</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1405.321187657107</v>
+        <v>1275.883734065347</v>
       </c>
       <c r="C8" t="n">
         <v>1036.358670716696</v>
@@ -4799,22 +4799,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2496.44967332588</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2496.44967332588</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2165.386785982309</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W8" t="n">
-        <v>2165.386785982309</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="X8" t="n">
-        <v>1791.921027721229</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="Y8" t="n">
-        <v>1791.921027721229</v>
+        <v>1662.483574129469</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4893,31 +4893,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="C10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="D10" t="n">
-        <v>698.7120650600564</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>573.2376265802779</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
     </row>
     <row r="11">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1335.505418729647</v>
+        <v>2326.910093152052</v>
       </c>
       <c r="C11" t="n">
-        <v>1216.463343367755</v>
+        <v>1957.94757621164</v>
       </c>
       <c r="D11" t="n">
-        <v>858.1976447610048</v>
+        <v>1599.681877604889</v>
       </c>
       <c r="E11" t="n">
-        <v>472.4093921627605</v>
+        <v>1213.893625006645</v>
       </c>
       <c r="F11" t="n">
-        <v>61.42348737315297</v>
+        <v>802.9077202170374</v>
       </c>
       <c r="G11" t="n">
-        <v>61.42348737315297</v>
+        <v>385.2707703580288</v>
       </c>
       <c r="H11" t="n">
-        <v>61.42348737315297</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="I11" t="n">
-        <v>61.42348737315297</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="J11" t="n">
-        <v>204.3809688641029</v>
+        <v>204.3809688641031</v>
       </c>
       <c r="K11" t="n">
-        <v>539.381979962599</v>
+        <v>539.3819799625991</v>
       </c>
       <c r="L11" t="n">
         <v>1007.256984588249</v>
       </c>
       <c r="M11" t="n">
-        <v>1544.464622569332</v>
+        <v>1544.464622569331</v>
       </c>
       <c r="N11" t="n">
-        <v>2075.732844220429</v>
+        <v>2075.732844220428</v>
       </c>
       <c r="O11" t="n">
-        <v>2532.206723101796</v>
+        <v>2532.206723101795</v>
       </c>
       <c r="P11" t="n">
         <v>2884.122234923072</v>
@@ -5069,22 +5069,22 @@
         <v>3036.677688282708</v>
       </c>
       <c r="T11" t="n">
-        <v>3036.677688282708</v>
+        <v>2819.473843212647</v>
       </c>
       <c r="U11" t="n">
-        <v>2782.942051580224</v>
+        <v>2819.473843212647</v>
       </c>
       <c r="V11" t="n">
-        <v>2451.879164236653</v>
+        <v>2819.473843212647</v>
       </c>
       <c r="W11" t="n">
-        <v>2099.110508966539</v>
+        <v>2819.473843212647</v>
       </c>
       <c r="X11" t="n">
-        <v>1725.644750705459</v>
+        <v>2819.473843212647</v>
       </c>
       <c r="Y11" t="n">
-        <v>1335.505418729647</v>
+        <v>2713.509933216174</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>117.4448884899775</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42348737315297</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="J12" t="n">
-        <v>61.42348737315297</v>
+        <v>152.8746043093674</v>
       </c>
       <c r="K12" t="n">
-        <v>82.52827080909618</v>
+        <v>278.2321643672048</v>
       </c>
       <c r="L12" t="n">
-        <v>472.1931002999826</v>
+        <v>720.0646331944522</v>
       </c>
       <c r="M12" t="n">
-        <v>1039.769973170469</v>
+        <v>1164.328016591452</v>
       </c>
       <c r="N12" t="n">
-        <v>1638.075930375599</v>
+        <v>1762.633973796583</v>
       </c>
       <c r="O12" t="n">
-        <v>2118.993314410705</v>
+        <v>2243.551357831688</v>
       </c>
       <c r="P12" t="n">
-        <v>2487.968845846993</v>
+        <v>2612.526889267976</v>
       </c>
       <c r="Q12" t="n">
         <v>2681.921447781306</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.42348737315297</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="C13" t="n">
-        <v>61.42348737315297</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="D13" t="n">
-        <v>61.42348737315297</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="E13" t="n">
-        <v>61.42348737315297</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="F13" t="n">
-        <v>61.42348737315297</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="G13" t="n">
-        <v>61.42348737315297</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="H13" t="n">
-        <v>61.42348737315297</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="I13" t="n">
-        <v>61.42348737315297</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="J13" t="n">
-        <v>61.42348737315297</v>
+        <v>61.42348737315296</v>
       </c>
       <c r="K13" t="n">
         <v>134.420969355444</v>
@@ -5218,31 +5218,31 @@
         <v>855.8756625438007</v>
       </c>
       <c r="Q13" t="n">
-        <v>855.8756625438007</v>
+        <v>838.7359475699621</v>
       </c>
       <c r="R13" t="n">
-        <v>714.3214534229288</v>
+        <v>697.1817384490903</v>
       </c>
       <c r="S13" t="n">
-        <v>502.5881708771526</v>
+        <v>485.4484559033141</v>
       </c>
       <c r="T13" t="n">
-        <v>275.9064395180802</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="U13" t="n">
-        <v>61.42348737315297</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="V13" t="n">
-        <v>61.42348737315297</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="W13" t="n">
-        <v>61.42348737315297</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="X13" t="n">
-        <v>61.42348737315297</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.42348737315297</v>
+        <v>96.71416479159669</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1703.765593286574</v>
+        <v>562.9725281175424</v>
       </c>
       <c r="C14" t="n">
-        <v>1334.803076346163</v>
+        <v>385.2707703580288</v>
       </c>
       <c r="D14" t="n">
-        <v>976.5373777394122</v>
+        <v>385.2707703580288</v>
       </c>
       <c r="E14" t="n">
-        <v>590.749125141168</v>
+        <v>385.2707703580288</v>
       </c>
       <c r="F14" t="n">
-        <v>179.7632203515604</v>
+        <v>385.2707703580288</v>
       </c>
       <c r="G14" t="n">
-        <v>179.7632203515604</v>
+        <v>385.2707703580288</v>
       </c>
       <c r="H14" t="n">
-        <v>179.7632203515604</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I14" t="n">
         <v>61.42348737315297</v>
       </c>
       <c r="J14" t="n">
-        <v>204.3809688641031</v>
+        <v>204.3809688641029</v>
       </c>
       <c r="K14" t="n">
-        <v>539.381979962599</v>
+        <v>539.3819799625988</v>
       </c>
       <c r="L14" t="n">
         <v>1007.256984588249</v>
       </c>
       <c r="M14" t="n">
-        <v>1544.464622569331</v>
+        <v>1544.464622569332</v>
       </c>
       <c r="N14" t="n">
         <v>2075.732844220429</v>
@@ -5300,28 +5300,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R14" t="n">
-        <v>3071.174368657648</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="S14" t="n">
-        <v>3071.174368657648</v>
+        <v>2867.948482804785</v>
       </c>
       <c r="T14" t="n">
-        <v>2853.970523587588</v>
+        <v>2650.744637734725</v>
       </c>
       <c r="U14" t="n">
-        <v>2853.970523587588</v>
+        <v>2397.009001032241</v>
       </c>
       <c r="V14" t="n">
-        <v>2853.970523587588</v>
+        <v>2065.94611368867</v>
       </c>
       <c r="W14" t="n">
-        <v>2853.970523587588</v>
+        <v>1713.177458418556</v>
       </c>
       <c r="X14" t="n">
-        <v>2480.504765326508</v>
+        <v>1339.711700157476</v>
       </c>
       <c r="Y14" t="n">
-        <v>2090.365433350696</v>
+        <v>949.5723681816642</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>152.8746043093674</v>
       </c>
       <c r="K15" t="n">
-        <v>435.7999723877634</v>
+        <v>278.2321643672048</v>
       </c>
       <c r="L15" t="n">
-        <v>877.6324412150108</v>
+        <v>720.0646331944522</v>
       </c>
       <c r="M15" t="n">
-        <v>1445.209314085497</v>
+        <v>1287.641506064939</v>
       </c>
       <c r="N15" t="n">
-        <v>1638.075930375599</v>
+        <v>1885.947463270069</v>
       </c>
       <c r="O15" t="n">
-        <v>2118.993314410705</v>
+        <v>2366.864847305175</v>
       </c>
       <c r="P15" t="n">
-        <v>2487.968845846993</v>
+        <v>2612.526889267976</v>
       </c>
       <c r="Q15" t="n">
         <v>2681.921447781306</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.1817384490904</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="C16" t="n">
-        <v>697.1817384490904</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="D16" t="n">
-        <v>697.1817384490904</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="E16" t="n">
-        <v>697.1817384490904</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="F16" t="n">
-        <v>553.9318858532677</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="G16" t="n">
-        <v>385.0787029468253</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="H16" t="n">
         <v>228.6338919558123</v>
       </c>
       <c r="I16" t="n">
-        <v>96.71416479159669</v>
+        <v>96.7141647915967</v>
       </c>
       <c r="J16" t="n">
         <v>61.42348737315297</v>
@@ -5443,43 +5443,43 @@
         <v>283.3590487423176</v>
       </c>
       <c r="M16" t="n">
-        <v>450.782493890628</v>
+        <v>450.7824938906278</v>
       </c>
       <c r="N16" t="n">
-        <v>619.6596001449643</v>
+        <v>619.6596001449642</v>
       </c>
       <c r="O16" t="n">
-        <v>759.628645808064</v>
+        <v>759.6286458080639</v>
       </c>
       <c r="P16" t="n">
-        <v>855.8756625438008</v>
+        <v>855.8756625438007</v>
       </c>
       <c r="Q16" t="n">
-        <v>838.7359475699623</v>
+        <v>838.7359475699621</v>
       </c>
       <c r="R16" t="n">
-        <v>697.1817384490904</v>
+        <v>697.1817384490903</v>
       </c>
       <c r="S16" t="n">
-        <v>697.1817384490904</v>
+        <v>485.4484559033141</v>
       </c>
       <c r="T16" t="n">
-        <v>697.1817384490904</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="U16" t="n">
-        <v>697.1817384490904</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="V16" t="n">
-        <v>697.1817384490904</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="W16" t="n">
-        <v>697.1817384490904</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="X16" t="n">
-        <v>697.1817384490904</v>
+        <v>258.7667245442417</v>
       </c>
       <c r="Y16" t="n">
-        <v>697.1817384490904</v>
+        <v>258.7667245442417</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1335.505418729647</v>
+        <v>1152.798254034527</v>
       </c>
       <c r="C17" t="n">
-        <v>966.5429017892357</v>
+        <v>1152.798254034527</v>
       </c>
       <c r="D17" t="n">
-        <v>966.5429017892357</v>
+        <v>1152.798254034527</v>
       </c>
       <c r="E17" t="n">
-        <v>580.7546491909914</v>
+        <v>1152.798254034527</v>
       </c>
       <c r="F17" t="n">
-        <v>580.7546491909914</v>
+        <v>802.9077202170374</v>
       </c>
       <c r="G17" t="n">
-        <v>526.1355439572196</v>
+        <v>385.2707703580288</v>
       </c>
       <c r="H17" t="n">
-        <v>202.2882609723438</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I17" t="n">
         <v>61.42348737315297</v>
@@ -5516,7 +5516,7 @@
         <v>204.3809688641031</v>
       </c>
       <c r="K17" t="n">
-        <v>539.381979962599</v>
+        <v>539.3819799625988</v>
       </c>
       <c r="L17" t="n">
         <v>1007.256984588249</v>
@@ -5537,28 +5537,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R17" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="S17" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="T17" t="n">
-        <v>3036.677688282708</v>
+        <v>2853.970523587588</v>
       </c>
       <c r="U17" t="n">
-        <v>2782.942051580224</v>
+        <v>2600.234886885104</v>
       </c>
       <c r="V17" t="n">
-        <v>2451.879164236653</v>
+        <v>2269.171999541533</v>
       </c>
       <c r="W17" t="n">
-        <v>2099.110508966539</v>
+        <v>1916.403344271419</v>
       </c>
       <c r="X17" t="n">
-        <v>1725.644750705459</v>
+        <v>1542.937586010339</v>
       </c>
       <c r="Y17" t="n">
-        <v>1335.505418729647</v>
+        <v>1152.798254034527</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>344.348855451549</v>
       </c>
       <c r="L18" t="n">
-        <v>786.1813242787964</v>
+        <v>574.3119613198982</v>
       </c>
       <c r="M18" t="n">
-        <v>1353.758197149283</v>
+        <v>1141.888834190385</v>
       </c>
       <c r="N18" t="n">
-        <v>1832.028532309912</v>
+        <v>1740.194791395515</v>
       </c>
       <c r="O18" t="n">
-        <v>2312.945916345017</v>
+        <v>2221.11217543062</v>
       </c>
       <c r="P18" t="n">
-        <v>2681.921447781306</v>
+        <v>2590.087706866909</v>
       </c>
       <c r="Q18" t="n">
         <v>2681.921447781306</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.42348737315297</v>
+        <v>338.4689416088229</v>
       </c>
       <c r="C19" t="n">
-        <v>61.42348737315297</v>
+        <v>169.532758680916</v>
       </c>
       <c r="D19" t="n">
         <v>61.42348737315297</v>
@@ -5695,28 +5695,28 @@
         <v>855.8756625438008</v>
       </c>
       <c r="R19" t="n">
-        <v>714.3214534229289</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="S19" t="n">
-        <v>502.5881708771527</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="T19" t="n">
-        <v>502.5881708771527</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="U19" t="n">
-        <v>213.4225578420057</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="V19" t="n">
-        <v>61.42348737315297</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="W19" t="n">
-        <v>61.42348737315297</v>
+        <v>566.4584925068402</v>
       </c>
       <c r="X19" t="n">
-        <v>61.42348737315297</v>
+        <v>338.4689416088229</v>
       </c>
       <c r="Y19" t="n">
-        <v>61.42348737315297</v>
+        <v>338.4689416088229</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1957.94757621164</v>
+        <v>613.2741657619513</v>
       </c>
       <c r="C20" t="n">
-        <v>1957.94757621164</v>
+        <v>613.2741657619513</v>
       </c>
       <c r="D20" t="n">
-        <v>1599.681877604889</v>
+        <v>613.2741657619513</v>
       </c>
       <c r="E20" t="n">
-        <v>1213.893625006645</v>
+        <v>613.2741657619513</v>
       </c>
       <c r="F20" t="n">
-        <v>802.9077202170374</v>
+        <v>202.2882609723438</v>
       </c>
       <c r="G20" t="n">
-        <v>385.2707703580288</v>
+        <v>202.2882609723438</v>
       </c>
       <c r="H20" t="n">
-        <v>61.42348737315297</v>
+        <v>202.2882609723438</v>
       </c>
       <c r="I20" t="n">
         <v>61.42348737315297</v>
@@ -5753,7 +5753,7 @@
         <v>204.3809688641031</v>
       </c>
       <c r="K20" t="n">
-        <v>539.3819799625988</v>
+        <v>539.381979962599</v>
       </c>
       <c r="L20" t="n">
         <v>1007.256984588249</v>
@@ -5774,28 +5774,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R20" t="n">
-        <v>3071.174368657648</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.174368657648</v>
+        <v>2867.948482804785</v>
       </c>
       <c r="T20" t="n">
-        <v>2895.514755527809</v>
+        <v>2650.744637734725</v>
       </c>
       <c r="U20" t="n">
-        <v>2641.779118825325</v>
+        <v>2397.009001032241</v>
       </c>
       <c r="V20" t="n">
-        <v>2310.716231481754</v>
+        <v>2065.94611368867</v>
       </c>
       <c r="W20" t="n">
-        <v>1957.94757621164</v>
+        <v>1713.177458418556</v>
       </c>
       <c r="X20" t="n">
-        <v>1957.94757621164</v>
+        <v>1339.711700157476</v>
       </c>
       <c r="Y20" t="n">
-        <v>1957.94757621164</v>
+        <v>949.5723681816642</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>61.42348737315297</v>
       </c>
       <c r="K21" t="n">
-        <v>344.348855451549</v>
+        <v>186.7810474309904</v>
       </c>
       <c r="L21" t="n">
-        <v>786.1813242787964</v>
+        <v>628.6135162582377</v>
       </c>
       <c r="M21" t="n">
-        <v>1353.758197149283</v>
+        <v>1196.190389128724</v>
       </c>
       <c r="N21" t="n">
-        <v>1952.064154354413</v>
+        <v>1794.496346333855</v>
       </c>
       <c r="O21" t="n">
-        <v>2432.981538389519</v>
+        <v>2275.41373036896</v>
       </c>
       <c r="P21" t="n">
-        <v>2681.921447781306</v>
+        <v>2612.526889267976</v>
       </c>
       <c r="Q21" t="n">
         <v>2681.921447781306</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2843.184817759631</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="C22" t="n">
-        <v>2674.248634831724</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="D22" t="n">
-        <v>2524.131995419389</v>
+        <v>705.759023131465</v>
       </c>
       <c r="E22" t="n">
-        <v>2376.218901836995</v>
+        <v>557.8459295490719</v>
       </c>
       <c r="F22" t="n">
-        <v>2276.722193487</v>
+        <v>410.9559820511615</v>
       </c>
       <c r="G22" t="n">
-        <v>2276.722193487</v>
+        <v>242.1027991447191</v>
       </c>
       <c r="H22" t="n">
-        <v>2276.722193487</v>
+        <v>85.65798815370613</v>
       </c>
       <c r="I22" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J22" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K22" t="n">
-        <v>2349.719675469291</v>
+        <v>134.420969355444</v>
       </c>
       <c r="L22" t="n">
-        <v>2498.657754856165</v>
+        <v>283.3590487423176</v>
       </c>
       <c r="M22" t="n">
-        <v>2666.081200004475</v>
+        <v>450.782493890628</v>
       </c>
       <c r="N22" t="n">
-        <v>2834.958306258812</v>
+        <v>619.6596001449643</v>
       </c>
       <c r="O22" t="n">
-        <v>2974.927351921911</v>
+        <v>759.628645808064</v>
       </c>
       <c r="P22" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="Q22" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="R22" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="S22" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="T22" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="U22" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="V22" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="W22" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="X22" t="n">
-        <v>2843.184817759631</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="Y22" t="n">
-        <v>2843.184817759631</v>
+        <v>855.8756625438008</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2467.774866751242</v>
+        <v>1174.439955518559</v>
       </c>
       <c r="C23" t="n">
-        <v>2098.812349810831</v>
+        <v>805.4774385781477</v>
       </c>
       <c r="D23" t="n">
-        <v>1740.54665120408</v>
+        <v>447.2117399713972</v>
       </c>
       <c r="E23" t="n">
-        <v>1354.758398605836</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="F23" t="n">
-        <v>943.7724938162283</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="G23" t="n">
-        <v>526.1355439572196</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H23" t="n">
-        <v>202.2882609723438</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I23" t="n">
         <v>61.42348737315297</v>
@@ -6011,28 +6011,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R23" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="S23" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="T23" t="n">
-        <v>3036.677688282708</v>
+        <v>2853.970523587588</v>
       </c>
       <c r="U23" t="n">
-        <v>3036.677688282708</v>
+        <v>2853.970523587588</v>
       </c>
       <c r="V23" t="n">
-        <v>3036.677688282708</v>
+        <v>2677.413541089687</v>
       </c>
       <c r="W23" t="n">
-        <v>3036.677688282708</v>
+        <v>2324.644885819573</v>
       </c>
       <c r="X23" t="n">
-        <v>2663.211930021628</v>
+        <v>1951.179127558493</v>
       </c>
       <c r="Y23" t="n">
-        <v>2663.211930021628</v>
+        <v>1561.039795582681</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>61.42348737315297</v>
       </c>
       <c r="J24" t="n">
-        <v>61.42348737315297</v>
+        <v>152.8746043093674</v>
       </c>
       <c r="K24" t="n">
-        <v>344.348855451549</v>
+        <v>435.7999723877634</v>
       </c>
       <c r="L24" t="n">
-        <v>786.1813242787964</v>
+        <v>877.6324412150108</v>
       </c>
       <c r="M24" t="n">
-        <v>1353.758197149283</v>
+        <v>1197.967760744712</v>
       </c>
       <c r="N24" t="n">
-        <v>1952.064154354413</v>
+        <v>1638.075930375599</v>
       </c>
       <c r="O24" t="n">
-        <v>2432.981538389519</v>
+        <v>2118.993314410705</v>
       </c>
       <c r="P24" t="n">
-        <v>2681.921447781306</v>
+        <v>2487.968845846993</v>
       </c>
       <c r="Q24" t="n">
         <v>2681.921447781306</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>230.2766702795954</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="C25" t="n">
-        <v>230.2766702795954</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="D25" t="n">
-        <v>230.2766702795954</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="E25" t="n">
-        <v>230.2766702795954</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="F25" t="n">
-        <v>230.2766702795954</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="G25" t="n">
         <v>61.42348737315297</v>
@@ -6154,43 +6154,43 @@
         <v>283.3590487423176</v>
       </c>
       <c r="M25" t="n">
-        <v>450.7824938906278</v>
+        <v>450.782493890628</v>
       </c>
       <c r="N25" t="n">
-        <v>619.6596001449642</v>
+        <v>619.6596001449643</v>
       </c>
       <c r="O25" t="n">
-        <v>759.6286458080639</v>
+        <v>759.628645808064</v>
       </c>
       <c r="P25" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="Q25" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="R25" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="S25" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="T25" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="U25" t="n">
-        <v>855.8756625438007</v>
+        <v>566.7100495086538</v>
       </c>
       <c r="V25" t="n">
-        <v>855.8756625438007</v>
+        <v>566.7100495086538</v>
       </c>
       <c r="W25" t="n">
-        <v>855.8756625438007</v>
+        <v>277.2928794716932</v>
       </c>
       <c r="X25" t="n">
-        <v>627.8861116457833</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="Y25" t="n">
-        <v>411.9251351098351</v>
+        <v>61.42348737315297</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1709.63667257166</v>
+        <v>2003.062810167176</v>
       </c>
       <c r="C26" t="n">
-        <v>1340.674155631248</v>
+        <v>1634.100293226764</v>
       </c>
       <c r="D26" t="n">
-        <v>982.4084570244975</v>
+        <v>1275.834594620014</v>
       </c>
       <c r="E26" t="n">
-        <v>596.6202044262532</v>
+        <v>890.0463420217693</v>
       </c>
       <c r="F26" t="n">
-        <v>596.6202044262532</v>
+        <v>479.0604372321617</v>
       </c>
       <c r="G26" t="n">
-        <v>178.9832545672444</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H26" t="n">
-        <v>178.9832545672444</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I26" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J26" t="n">
-        <v>204.3809688641031</v>
+        <v>204.3809688641027</v>
       </c>
       <c r="K26" t="n">
-        <v>539.3819799625991</v>
+        <v>539.3819799625985</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.256984588249</v>
+        <v>1007.256984588248</v>
       </c>
       <c r="M26" t="n">
         <v>1544.464622569331</v>
       </c>
       <c r="N26" t="n">
-        <v>2075.732844220428</v>
+        <v>2075.732844220429</v>
       </c>
       <c r="O26" t="n">
         <v>2532.206723101795</v>
@@ -6248,28 +6248,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R26" t="n">
-        <v>3071.174368657648</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="S26" t="n">
-        <v>3071.174368657648</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="T26" t="n">
-        <v>3071.174368657648</v>
+        <v>2819.473843212647</v>
       </c>
       <c r="U26" t="n">
-        <v>2817.438731955164</v>
+        <v>2819.473843212647</v>
       </c>
       <c r="V26" t="n">
-        <v>2486.375844611593</v>
+        <v>2819.473843212647</v>
       </c>
       <c r="W26" t="n">
-        <v>2486.375844611593</v>
+        <v>2819.473843212647</v>
       </c>
       <c r="X26" t="n">
-        <v>2486.375844611593</v>
+        <v>2779.801982207109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2096.236512635781</v>
+        <v>2389.662650231297</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>117.4448884899775</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J27" t="n">
-        <v>61.42348737315296</v>
+        <v>152.8746043093674</v>
       </c>
       <c r="K27" t="n">
-        <v>224.3132334070477</v>
+        <v>435.7999723877634</v>
       </c>
       <c r="L27" t="n">
-        <v>666.1457022342951</v>
+        <v>877.6324412150108</v>
       </c>
       <c r="M27" t="n">
-        <v>1233.722575104782</v>
+        <v>1445.209314085497</v>
       </c>
       <c r="N27" t="n">
-        <v>1832.028532309912</v>
+        <v>2043.515271290628</v>
       </c>
       <c r="O27" t="n">
-        <v>2312.945916345017</v>
+        <v>2429.883411654625</v>
       </c>
       <c r="P27" t="n">
-        <v>2681.921447781306</v>
+        <v>2612.526889267976</v>
       </c>
       <c r="Q27" t="n">
         <v>2681.921447781306</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.2016234398965</v>
+        <v>536.9211207044086</v>
       </c>
       <c r="C28" t="n">
-        <v>373.2016234398965</v>
+        <v>367.9849377765017</v>
       </c>
       <c r="D28" t="n">
-        <v>223.0849840275608</v>
+        <v>217.868298364166</v>
       </c>
       <c r="E28" t="n">
-        <v>208.3134348710633</v>
+        <v>217.868298364166</v>
       </c>
       <c r="F28" t="n">
-        <v>61.42348737315296</v>
+        <v>217.868298364166</v>
       </c>
       <c r="G28" t="n">
-        <v>61.42348737315296</v>
+        <v>217.868298364166</v>
       </c>
       <c r="H28" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I28" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J28" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K28" t="n">
         <v>134.420969355444</v>
@@ -6391,43 +6391,43 @@
         <v>283.3590487423176</v>
       </c>
       <c r="M28" t="n">
-        <v>450.7824938906278</v>
+        <v>450.782493890628</v>
       </c>
       <c r="N28" t="n">
-        <v>619.6596001449642</v>
+        <v>619.6596001449643</v>
       </c>
       <c r="O28" t="n">
-        <v>759.6286458080639</v>
+        <v>759.628645808064</v>
       </c>
       <c r="P28" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="Q28" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="R28" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="S28" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="T28" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="U28" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="V28" t="n">
-        <v>601.1911743379138</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="W28" t="n">
-        <v>601.1911743379138</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="X28" t="n">
-        <v>373.2016234398965</v>
+        <v>627.8861116457834</v>
       </c>
       <c r="Y28" t="n">
-        <v>373.2016234398965</v>
+        <v>627.8861116457834</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1589.906551013064</v>
+        <v>1206.288652779324</v>
       </c>
       <c r="C29" t="n">
-        <v>1220.944034072652</v>
+        <v>837.3261358389123</v>
       </c>
       <c r="D29" t="n">
-        <v>862.6783354659017</v>
+        <v>479.0604372321617</v>
       </c>
       <c r="E29" t="n">
-        <v>476.8900828676574</v>
+        <v>479.0604372321617</v>
       </c>
       <c r="F29" t="n">
-        <v>65.90417807804988</v>
+        <v>479.0604372321617</v>
       </c>
       <c r="G29" t="n">
-        <v>65.90417807804988</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H29" t="n">
-        <v>65.90417807804988</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I29" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J29" t="n">
         <v>204.3809688641031</v>
       </c>
       <c r="K29" t="n">
-        <v>539.3819799625991</v>
+        <v>539.3819799625988</v>
       </c>
       <c r="L29" t="n">
         <v>1007.256984588249</v>
@@ -6473,7 +6473,7 @@
         <v>1544.464622569331</v>
       </c>
       <c r="N29" t="n">
-        <v>2075.732844220428</v>
+        <v>2075.732844220429</v>
       </c>
       <c r="O29" t="n">
         <v>2532.206723101795</v>
@@ -6488,25 +6488,25 @@
         <v>3071.174368657648</v>
       </c>
       <c r="S29" t="n">
-        <v>3071.174368657648</v>
+        <v>3040.325125694023</v>
       </c>
       <c r="T29" t="n">
-        <v>3071.174368657648</v>
+        <v>3040.325125694023</v>
       </c>
       <c r="U29" t="n">
-        <v>3071.174368657648</v>
+        <v>3040.325125694023</v>
       </c>
       <c r="V29" t="n">
-        <v>2740.111481314077</v>
+        <v>2709.262238350452</v>
       </c>
       <c r="W29" t="n">
-        <v>2740.111481314077</v>
+        <v>2356.493583080337</v>
       </c>
       <c r="X29" t="n">
-        <v>2366.645723052997</v>
+        <v>1983.027824819257</v>
       </c>
       <c r="Y29" t="n">
-        <v>1976.506391077186</v>
+        <v>1592.888492843446</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>117.4448884899775</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J30" t="n">
-        <v>114.5672052447638</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K30" t="n">
-        <v>397.4925733231598</v>
+        <v>344.348855451549</v>
       </c>
       <c r="L30" t="n">
-        <v>472.1931002999826</v>
+        <v>786.1813242787964</v>
       </c>
       <c r="M30" t="n">
-        <v>1039.769973170469</v>
+        <v>1233.722575104781</v>
       </c>
       <c r="N30" t="n">
-        <v>1638.075930375599</v>
+        <v>1832.028532309912</v>
       </c>
       <c r="O30" t="n">
-        <v>2118.993314410705</v>
+        <v>2312.945916345017</v>
       </c>
       <c r="P30" t="n">
-        <v>2487.968845846993</v>
+        <v>2681.921447781306</v>
       </c>
       <c r="Q30" t="n">
         <v>2681.921447781306</v>
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>258.7667245442417</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="C31" t="n">
-        <v>258.7667245442417</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="D31" t="n">
-        <v>258.7667245442417</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="E31" t="n">
-        <v>258.7667245442417</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="F31" t="n">
-        <v>258.7667245442417</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="G31" t="n">
-        <v>258.7667245442417</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H31" t="n">
-        <v>228.6338919558123</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I31" t="n">
-        <v>96.71416479159669</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J31" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K31" t="n">
         <v>134.420969355444</v>
@@ -6628,43 +6628,43 @@
         <v>283.3590487423176</v>
       </c>
       <c r="M31" t="n">
-        <v>450.7824938906278</v>
+        <v>450.782493890628</v>
       </c>
       <c r="N31" t="n">
-        <v>619.6596001449642</v>
+        <v>619.6596001449643</v>
       </c>
       <c r="O31" t="n">
-        <v>759.6286458080639</v>
+        <v>759.628645808064</v>
       </c>
       <c r="P31" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="Q31" t="n">
-        <v>838.7359475699621</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="R31" t="n">
-        <v>697.1817384490903</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="S31" t="n">
-        <v>485.4484559033141</v>
+        <v>831.9553199732592</v>
       </c>
       <c r="T31" t="n">
-        <v>258.7667245442417</v>
+        <v>605.2735886141868</v>
       </c>
       <c r="U31" t="n">
-        <v>258.7667245442417</v>
+        <v>316.1079755790398</v>
       </c>
       <c r="V31" t="n">
-        <v>258.7667245442417</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="W31" t="n">
-        <v>258.7667245442417</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="X31" t="n">
-        <v>258.7667245442417</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="Y31" t="n">
-        <v>258.7667245442417</v>
+        <v>61.42348737315297</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1171.870237157449</v>
+        <v>1740.54665120408</v>
       </c>
       <c r="C32" t="n">
-        <v>802.9077202170374</v>
+        <v>1740.54665120408</v>
       </c>
       <c r="D32" t="n">
-        <v>802.9077202170374</v>
+        <v>1740.54665120408</v>
       </c>
       <c r="E32" t="n">
-        <v>802.9077202170374</v>
+        <v>1354.758398605836</v>
       </c>
       <c r="F32" t="n">
-        <v>802.9077202170374</v>
+        <v>943.7724938162283</v>
       </c>
       <c r="G32" t="n">
-        <v>385.2707703580288</v>
+        <v>526.1355439572196</v>
       </c>
       <c r="H32" t="n">
-        <v>61.42348737315296</v>
+        <v>202.2882609723438</v>
       </c>
       <c r="I32" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J32" t="n">
-        <v>204.380968864103</v>
+        <v>204.3809688641031</v>
       </c>
       <c r="K32" t="n">
-        <v>539.3819799625987</v>
+        <v>539.381979962599</v>
       </c>
       <c r="L32" t="n">
         <v>1007.256984588249</v>
@@ -6722,28 +6722,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R32" t="n">
-        <v>3071.174368657648</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="S32" t="n">
-        <v>3071.174368657648</v>
+        <v>2867.948482804785</v>
       </c>
       <c r="T32" t="n">
-        <v>2873.04250671051</v>
+        <v>2678.113830520249</v>
       </c>
       <c r="U32" t="n">
-        <v>2619.306870008026</v>
+        <v>2424.378193817765</v>
       </c>
       <c r="V32" t="n">
-        <v>2288.243982664455</v>
+        <v>2093.315306474195</v>
       </c>
       <c r="W32" t="n">
-        <v>1935.475327394341</v>
+        <v>1740.54665120408</v>
       </c>
       <c r="X32" t="n">
-        <v>1562.009569133261</v>
+        <v>1740.54665120408</v>
       </c>
       <c r="Y32" t="n">
-        <v>1171.870237157449</v>
+        <v>1740.54665120408</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>117.4448884899775</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J33" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K33" t="n">
         <v>344.348855451549</v>
       </c>
       <c r="L33" t="n">
-        <v>786.1813242787964</v>
+        <v>472.1931002999823</v>
       </c>
       <c r="M33" t="n">
-        <v>1353.758197149283</v>
+        <v>1039.769973170469</v>
       </c>
       <c r="N33" t="n">
-        <v>1952.064154354413</v>
+        <v>1638.075930375599</v>
       </c>
       <c r="O33" t="n">
-        <v>2432.981538389519</v>
+        <v>2118.993314410705</v>
       </c>
       <c r="P33" t="n">
         <v>2487.968845846993</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>855.8756625438007</v>
+        <v>265.6503477195036</v>
       </c>
       <c r="C34" t="n">
-        <v>855.8756625438007</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="D34" t="n">
-        <v>848.7349269335712</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="E34" t="n">
-        <v>700.821833351178</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="F34" t="n">
-        <v>553.9318858532677</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="G34" t="n">
-        <v>385.0787029468253</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="H34" t="n">
-        <v>228.6338919558123</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="I34" t="n">
         <v>96.71416479159669</v>
       </c>
       <c r="J34" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K34" t="n">
         <v>134.420969355444</v>
@@ -6865,43 +6865,43 @@
         <v>283.3590487423176</v>
       </c>
       <c r="M34" t="n">
-        <v>450.7824938906278</v>
+        <v>450.782493890628</v>
       </c>
       <c r="N34" t="n">
-        <v>619.6596001449642</v>
+        <v>619.6596001449643</v>
       </c>
       <c r="O34" t="n">
-        <v>759.6286458080639</v>
+        <v>759.628645808064</v>
       </c>
       <c r="P34" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="Q34" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="R34" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="S34" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="T34" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="U34" t="n">
-        <v>855.8756625438007</v>
+        <v>566.7100495086538</v>
       </c>
       <c r="V34" t="n">
-        <v>855.8756625438007</v>
+        <v>566.7100495086538</v>
       </c>
       <c r="W34" t="n">
-        <v>855.8756625438007</v>
+        <v>486.4429268630337</v>
       </c>
       <c r="X34" t="n">
-        <v>855.8756625438007</v>
+        <v>486.4429268630337</v>
       </c>
       <c r="Y34" t="n">
-        <v>855.8756625438007</v>
+        <v>265.6503477195036</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2467.774866751242</v>
+        <v>1354.758398605836</v>
       </c>
       <c r="C35" t="n">
-        <v>2098.812349810831</v>
+        <v>1354.758398605836</v>
       </c>
       <c r="D35" t="n">
-        <v>1740.54665120408</v>
+        <v>1354.758398605836</v>
       </c>
       <c r="E35" t="n">
         <v>1354.758398605836</v>
@@ -6932,13 +6932,13 @@
         <v>202.2882609723438</v>
       </c>
       <c r="I35" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J35" t="n">
         <v>204.3809688641031</v>
       </c>
       <c r="K35" t="n">
-        <v>539.3819799625987</v>
+        <v>539.381979962599</v>
       </c>
       <c r="L35" t="n">
         <v>1007.256984588249</v>
@@ -6959,28 +6959,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R35" t="n">
-        <v>3071.174368657648</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="S35" t="n">
-        <v>2902.445163179725</v>
+        <v>2867.948482804785</v>
       </c>
       <c r="T35" t="n">
-        <v>2902.445163179725</v>
+        <v>2650.744637734725</v>
       </c>
       <c r="U35" t="n">
-        <v>2902.445163179725</v>
+        <v>2467.592652201152</v>
       </c>
       <c r="V35" t="n">
-        <v>2902.445163179725</v>
+        <v>2467.592652201152</v>
       </c>
       <c r="W35" t="n">
-        <v>2902.445163179725</v>
+        <v>2114.823996931038</v>
       </c>
       <c r="X35" t="n">
-        <v>2902.445163179725</v>
+        <v>1741.358238669958</v>
       </c>
       <c r="Y35" t="n">
-        <v>2854.374706815364</v>
+        <v>1741.358238669958</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>117.4448884899775</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J36" t="n">
-        <v>61.42348737315296</v>
+        <v>152.8746043093674</v>
       </c>
       <c r="K36" t="n">
-        <v>82.52827080909617</v>
+        <v>435.7999723877634</v>
       </c>
       <c r="L36" t="n">
-        <v>524.3607396363435</v>
+        <v>877.6324412150108</v>
       </c>
       <c r="M36" t="n">
-        <v>1091.93761250683</v>
+        <v>1039.769973170469</v>
       </c>
       <c r="N36" t="n">
-        <v>1690.24356971196</v>
+        <v>1638.075930375599</v>
       </c>
       <c r="O36" t="n">
-        <v>2171.160953747066</v>
+        <v>2118.993314410705</v>
       </c>
       <c r="P36" t="n">
-        <v>2540.136485183354</v>
+        <v>2487.968845846993</v>
       </c>
       <c r="Q36" t="n">
         <v>2681.921447781306</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2276.722193487</v>
+        <v>230.3596703010599</v>
       </c>
       <c r="C37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="D37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="E37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="F37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="G37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J37" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K37" t="n">
-        <v>2349.719675469291</v>
+        <v>134.420969355444</v>
       </c>
       <c r="L37" t="n">
-        <v>2498.657754856165</v>
+        <v>283.3590487423176</v>
       </c>
       <c r="M37" t="n">
-        <v>2666.081200004475</v>
+        <v>450.782493890628</v>
       </c>
       <c r="N37" t="n">
-        <v>2834.958306258811</v>
+        <v>619.6596001449643</v>
       </c>
       <c r="O37" t="n">
-        <v>2974.927351921911</v>
+        <v>759.628645808064</v>
       </c>
       <c r="P37" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="Q37" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="R37" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="S37" t="n">
-        <v>3071.174368657648</v>
+        <v>644.1423799980246</v>
       </c>
       <c r="T37" t="n">
-        <v>3071.174368657648</v>
+        <v>644.1423799980246</v>
       </c>
       <c r="U37" t="n">
-        <v>2820.823851729847</v>
+        <v>644.1423799980246</v>
       </c>
       <c r="V37" t="n">
-        <v>2566.139363523961</v>
+        <v>644.1423799980246</v>
       </c>
       <c r="W37" t="n">
-        <v>2276.722193487</v>
+        <v>644.1423799980246</v>
       </c>
       <c r="X37" t="n">
-        <v>2276.722193487</v>
+        <v>632.8007142748297</v>
       </c>
       <c r="Y37" t="n">
-        <v>2276.722193487</v>
+        <v>412.0081351312996</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2003.062810167176</v>
+        <v>1774.965066825955</v>
       </c>
       <c r="C38" t="n">
-        <v>1634.100293226764</v>
+        <v>1774.965066825955</v>
       </c>
       <c r="D38" t="n">
-        <v>1275.834594620014</v>
+        <v>1416.699368219204</v>
       </c>
       <c r="E38" t="n">
-        <v>890.0463420217693</v>
+        <v>1030.91111562096</v>
       </c>
       <c r="F38" t="n">
-        <v>479.0604372321617</v>
+        <v>619.9252108313525</v>
       </c>
       <c r="G38" t="n">
-        <v>61.42348737315296</v>
+        <v>202.2882609723438</v>
       </c>
       <c r="H38" t="n">
-        <v>61.42348737315296</v>
+        <v>202.2882609723438</v>
       </c>
       <c r="I38" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J38" t="n">
         <v>204.3809688641031</v>
       </c>
       <c r="K38" t="n">
-        <v>539.3819799625991</v>
+        <v>539.3819799625988</v>
       </c>
       <c r="L38" t="n">
         <v>1007.256984588249</v>
@@ -7184,7 +7184,7 @@
         <v>1544.464622569331</v>
       </c>
       <c r="N38" t="n">
-        <v>2075.732844220428</v>
+        <v>2075.732844220429</v>
       </c>
       <c r="O38" t="n">
         <v>2532.206723101795</v>
@@ -7196,28 +7196,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R38" t="n">
-        <v>3071.174368657648</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.174368657648</v>
+        <v>2929.736091212184</v>
       </c>
       <c r="T38" t="n">
-        <v>2853.970523587587</v>
+        <v>2712.532246142124</v>
       </c>
       <c r="U38" t="n">
-        <v>2853.970523587587</v>
+        <v>2458.79660943964</v>
       </c>
       <c r="V38" t="n">
-        <v>2763.128408492377</v>
+        <v>2127.733722096069</v>
       </c>
       <c r="W38" t="n">
-        <v>2763.128408492377</v>
+        <v>1774.965066825955</v>
       </c>
       <c r="X38" t="n">
-        <v>2389.662650231297</v>
+        <v>1774.965066825955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2389.662650231297</v>
+        <v>1774.965066825955</v>
       </c>
     </row>
     <row r="39">
@@ -7248,10 +7248,10 @@
         <v>117.4448884899775</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J39" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K39" t="n">
         <v>344.348855451549</v>
@@ -7266,10 +7266,10 @@
         <v>1952.064154354413</v>
       </c>
       <c r="O39" t="n">
-        <v>2432.981538389519</v>
+        <v>2200.817568438375</v>
       </c>
       <c r="P39" t="n">
-        <v>2681.921447781306</v>
+        <v>2569.793099874664</v>
       </c>
       <c r="Q39" t="n">
         <v>2681.921447781306</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2445.658376414907</v>
+        <v>2276.722193487</v>
       </c>
       <c r="C40" t="n">
         <v>2276.722193487</v>
@@ -7342,7 +7342,7 @@
         <v>2666.081200004475</v>
       </c>
       <c r="N40" t="n">
-        <v>2834.958306258811</v>
+        <v>2834.958306258812</v>
       </c>
       <c r="O40" t="n">
         <v>2974.927351921911</v>
@@ -7354,28 +7354,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R40" t="n">
-        <v>3071.174368657648</v>
+        <v>3004.302820426996</v>
       </c>
       <c r="S40" t="n">
-        <v>3071.174368657648</v>
+        <v>2792.56953788122</v>
       </c>
       <c r="T40" t="n">
-        <v>3071.174368657648</v>
+        <v>2565.887806522147</v>
       </c>
       <c r="U40" t="n">
-        <v>3071.174368657648</v>
+        <v>2276.722193487</v>
       </c>
       <c r="V40" t="n">
-        <v>3071.174368657648</v>
+        <v>2276.722193487</v>
       </c>
       <c r="W40" t="n">
-        <v>3071.174368657648</v>
+        <v>2276.722193487</v>
       </c>
       <c r="X40" t="n">
-        <v>2848.099420388677</v>
+        <v>2276.722193487</v>
       </c>
       <c r="Y40" t="n">
-        <v>2627.306841245147</v>
+        <v>2276.722193487</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>890.0463420217693</v>
+        <v>1726.290633907358</v>
       </c>
       <c r="C41" t="n">
-        <v>890.0463420217693</v>
+        <v>1357.328116966946</v>
       </c>
       <c r="D41" t="n">
-        <v>890.0463420217693</v>
+        <v>999.0624183601956</v>
       </c>
       <c r="E41" t="n">
-        <v>890.0463420217693</v>
+        <v>613.2741657619513</v>
       </c>
       <c r="F41" t="n">
-        <v>479.0604372321617</v>
+        <v>202.2882609723438</v>
       </c>
       <c r="G41" t="n">
-        <v>61.42348737315296</v>
+        <v>202.2882609723438</v>
       </c>
       <c r="H41" t="n">
-        <v>61.42348737315296</v>
+        <v>202.2882609723438</v>
       </c>
       <c r="I41" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J41" t="n">
         <v>204.3809688641031</v>
       </c>
       <c r="K41" t="n">
-        <v>539.3819799625991</v>
+        <v>539.3819799625988</v>
       </c>
       <c r="L41" t="n">
         <v>1007.256984588249</v>
@@ -7421,7 +7421,7 @@
         <v>1544.464622569331</v>
       </c>
       <c r="N41" t="n">
-        <v>2075.732844220428</v>
+        <v>2075.732844220429</v>
       </c>
       <c r="O41" t="n">
         <v>2532.206723101795</v>
@@ -7436,25 +7436,25 @@
         <v>3036.677688282708</v>
       </c>
       <c r="S41" t="n">
-        <v>2867.948482804785</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="T41" t="n">
-        <v>2867.948482804785</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="U41" t="n">
-        <v>2614.212846102301</v>
+        <v>3036.677688282708</v>
       </c>
       <c r="V41" t="n">
-        <v>2283.14995875873</v>
+        <v>2705.614800939137</v>
       </c>
       <c r="W41" t="n">
-        <v>1930.381303488616</v>
+        <v>2705.614800939137</v>
       </c>
       <c r="X41" t="n">
-        <v>1666.785514061703</v>
+        <v>2332.149042678057</v>
       </c>
       <c r="Y41" t="n">
-        <v>1276.646182085891</v>
+        <v>1942.009710702246</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>117.4448884899775</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J42" t="n">
-        <v>61.42348737315296</v>
+        <v>152.8746043093674</v>
       </c>
       <c r="K42" t="n">
-        <v>344.348855451549</v>
+        <v>345.6387724262728</v>
       </c>
       <c r="L42" t="n">
-        <v>472.1931002999826</v>
+        <v>787.4712412535201</v>
       </c>
       <c r="M42" t="n">
-        <v>1039.769973170469</v>
+        <v>1355.048114124007</v>
       </c>
       <c r="N42" t="n">
-        <v>1638.075930375599</v>
+        <v>1953.354071329137</v>
       </c>
       <c r="O42" t="n">
-        <v>2118.993314410705</v>
+        <v>2434.271455364243</v>
       </c>
       <c r="P42" t="n">
         <v>2487.968845846993</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.42348737315296</v>
+        <v>277.2928794716932</v>
       </c>
       <c r="C43" t="n">
-        <v>61.42348737315296</v>
+        <v>277.2928794716932</v>
       </c>
       <c r="D43" t="n">
-        <v>61.42348737315296</v>
+        <v>277.2928794716932</v>
       </c>
       <c r="E43" t="n">
-        <v>61.42348737315296</v>
+        <v>208.3134348710633</v>
       </c>
       <c r="F43" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="G43" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="H43" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="I43" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="J43" t="n">
-        <v>61.42348737315296</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K43" t="n">
         <v>134.420969355444</v>
@@ -7576,43 +7576,43 @@
         <v>283.3590487423176</v>
       </c>
       <c r="M43" t="n">
-        <v>450.7824938906278</v>
+        <v>450.782493890628</v>
       </c>
       <c r="N43" t="n">
-        <v>619.6596001449642</v>
+        <v>619.6596001449643</v>
       </c>
       <c r="O43" t="n">
-        <v>759.6286458080639</v>
+        <v>759.628645808064</v>
       </c>
       <c r="P43" t="n">
-        <v>855.8756625438007</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="Q43" t="n">
-        <v>838.7359475699621</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="R43" t="n">
-        <v>838.7359475699621</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="S43" t="n">
-        <v>627.0026650241859</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="T43" t="n">
-        <v>627.0026650241859</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="U43" t="n">
-        <v>627.0026650241859</v>
+        <v>566.7100495086538</v>
       </c>
       <c r="V43" t="n">
-        <v>627.0026650241859</v>
+        <v>566.7100495086538</v>
       </c>
       <c r="W43" t="n">
-        <v>627.0026650241859</v>
+        <v>277.2928794716932</v>
       </c>
       <c r="X43" t="n">
-        <v>399.0131141261686</v>
+        <v>277.2928794716932</v>
       </c>
       <c r="Y43" t="n">
-        <v>178.2205349826385</v>
+        <v>277.2928794716932</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1582.856141947057</v>
+        <v>1957.94757621164</v>
       </c>
       <c r="C44" t="n">
-        <v>1213.893625006645</v>
+        <v>1957.94757621164</v>
       </c>
       <c r="D44" t="n">
-        <v>1213.893625006645</v>
+        <v>1599.681877604889</v>
       </c>
       <c r="E44" t="n">
         <v>1213.893625006645</v>
@@ -7646,10 +7646,10 @@
         <v>61.42348737315297</v>
       </c>
       <c r="J44" t="n">
-        <v>204.3809688641031</v>
+        <v>204.380968864103</v>
       </c>
       <c r="K44" t="n">
-        <v>539.3819799625988</v>
+        <v>539.3819799625987</v>
       </c>
       <c r="L44" t="n">
         <v>1007.256984588249</v>
@@ -7670,28 +7670,28 @@
         <v>3071.174368657648</v>
       </c>
       <c r="R44" t="n">
-        <v>3036.677688282708</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="S44" t="n">
-        <v>2867.948482804785</v>
+        <v>3071.174368657648</v>
       </c>
       <c r="T44" t="n">
-        <v>2650.744637734725</v>
+        <v>2895.514755527809</v>
       </c>
       <c r="U44" t="n">
-        <v>2397.009001032241</v>
+        <v>2641.779118825325</v>
       </c>
       <c r="V44" t="n">
-        <v>2065.94611368867</v>
+        <v>2310.716231481754</v>
       </c>
       <c r="W44" t="n">
-        <v>1972.995473922868</v>
+        <v>1957.94757621164</v>
       </c>
       <c r="X44" t="n">
-        <v>1972.995473922868</v>
+        <v>1957.94757621164</v>
       </c>
       <c r="Y44" t="n">
-        <v>1582.856141947057</v>
+        <v>1957.94757621164</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>61.42348737315297</v>
       </c>
       <c r="K45" t="n">
-        <v>344.348855451549</v>
+        <v>277.6021848135197</v>
       </c>
       <c r="L45" t="n">
-        <v>786.1813242787964</v>
+        <v>719.434653640767</v>
       </c>
       <c r="M45" t="n">
-        <v>1353.758197149283</v>
+        <v>1039.769973170469</v>
       </c>
       <c r="N45" t="n">
-        <v>1952.064154354413</v>
+        <v>1638.075930375599</v>
       </c>
       <c r="O45" t="n">
-        <v>2432.981538389519</v>
+        <v>2118.993314410705</v>
       </c>
       <c r="P45" t="n">
-        <v>2681.921447781306</v>
+        <v>2487.968845846993</v>
       </c>
       <c r="Q45" t="n">
         <v>2681.921447781306</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="C46" t="n">
-        <v>3046.939867877095</v>
+        <v>686.9394796158939</v>
       </c>
       <c r="D46" t="n">
-        <v>2896.823228464759</v>
+        <v>536.8228402035581</v>
       </c>
       <c r="E46" t="n">
-        <v>2748.910134882366</v>
+        <v>388.909746621165</v>
       </c>
       <c r="F46" t="n">
-        <v>2602.020187384456</v>
+        <v>388.909746621165</v>
       </c>
       <c r="G46" t="n">
-        <v>2433.167004478013</v>
+        <v>385.0787029468253</v>
       </c>
       <c r="H46" t="n">
-        <v>2276.722193487</v>
+        <v>228.6338919558123</v>
       </c>
       <c r="I46" t="n">
-        <v>2276.722193487</v>
+        <v>96.71416479159669</v>
       </c>
       <c r="J46" t="n">
-        <v>2276.722193487</v>
+        <v>61.42348737315297</v>
       </c>
       <c r="K46" t="n">
-        <v>2349.719675469291</v>
+        <v>134.420969355444</v>
       </c>
       <c r="L46" t="n">
-        <v>2498.657754856165</v>
+        <v>283.3590487423176</v>
       </c>
       <c r="M46" t="n">
-        <v>2666.081200004475</v>
+        <v>450.782493890628</v>
       </c>
       <c r="N46" t="n">
-        <v>2834.958306258812</v>
+        <v>619.6596001449643</v>
       </c>
       <c r="O46" t="n">
-        <v>2974.927351921911</v>
+        <v>759.628645808064</v>
       </c>
       <c r="P46" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="Q46" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="R46" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="S46" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="T46" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="U46" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="V46" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="W46" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="X46" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
       <c r="Y46" t="n">
-        <v>3071.174368657648</v>
+        <v>855.8756625438008</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>33.71616974827306</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>318.1457601152158</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>69.80768655059566</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9252,7 +9252,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>358.0942712682997</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>14.1655686102809</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>197.2146655646833</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.1655686102809</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>33.71616974827306</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>197.2146655646833</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>14.16556861028093</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>33.71616974827306</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>143.2171339373248</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>14.16556861028093</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>87.39669285091026</v>
+        <v>33.71616974827305</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>14.1655686102809</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>33.71616974827306</v>
+        <v>33.71616974827305</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>53.68052310263693</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>1.302946439115168</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>33.71616974827306</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>56.17037595704187</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>157.3827025476057</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>33.71616974827306</v>
+        <v>33.71616974827305</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>197.2146655646833</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.16556861028093</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>33.71616974827306</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>53.68052310263718</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>197.2146655646833</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>14.1655686102809</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>247.4212371627344</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.608810155027</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>139.4561258631989</v>
@@ -23309,22 +23309,22 @@
         <v>167.0419134231436</v>
       </c>
       <c r="T11" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>281.3336677595449</v>
       </c>
     </row>
     <row r="12">
@@ -23437,7 +23437,7 @@
         <v>130.6005298925735</v>
       </c>
       <c r="J13" t="n">
-        <v>34.9377706442593</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.96831782410011</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>73.9358342813176</v>
+        <v>125.841922749677</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>189.348151589089</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.4605803604186</v>
       </c>
       <c r="H14" t="n">
-        <v>320.608810155027</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>22.29979021457557</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,22 +23540,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>34.15171357119075</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>3.603693953066738</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>125.0488586185578</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>209.6159497203184</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>224.4149140454817</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2739569047956</v>
@@ -23732,25 +23732,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>60.48441726239656</v>
       </c>
       <c r="G17" t="n">
-        <v>359.3876661789845</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,13 +23777,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>34.15171357119075</v>
       </c>
       <c r="S17" t="n">
         <v>167.0419134231436</v>
       </c>
       <c r="T17" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>41.58729442352698</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23935,25 +23935,25 @@
         <v>16.96831782410011</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>140.1386670296631</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>209.6159497203184</v>
       </c>
       <c r="T19" t="n">
         <v>224.4149140454817</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2739569047956</v>
       </c>
       <c r="V19" t="n">
-        <v>101.6585635596638</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>49.79862126796485</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.608810155027</v>
       </c>
       <c r="I20" t="n">
-        <v>139.4561258631989</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,13 +24014,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>34.15171357119075</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>41.12878962081865</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>46.91930675643614</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.164651077378</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>154.8803628811029</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>130.6005298925735</v>
+        <v>106.6083741198258</v>
       </c>
       <c r="J22" t="n">
         <v>34.93777064425929</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>189.2511490257986</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24215,16 +24215,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.608810155027</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>34.15171357119075</v>
       </c>
       <c r="S23" t="n">
         <v>167.0419134231436</v>
       </c>
       <c r="T23" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.1982803354592</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>152.9608457972133</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H25" t="n">
         <v>154.8803628811029</v>
@@ -24385,7 +24385,7 @@
         <v>130.6005298925735</v>
       </c>
       <c r="J25" t="n">
-        <v>34.9377706442593</v>
+        <v>34.93777064425929</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24418,19 +24418,19 @@
         <v>224.4149140454817</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2739569047956</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>11.99895721148235</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.783286581506047</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>320.608810155027</v>
       </c>
       <c r="I26" t="n">
-        <v>23.07195634104835</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,25 +24488,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>34.15171357119077</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>167.0419134231436</v>
       </c>
       <c r="T26" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>330.4559582829862</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,31 +24598,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>89.77663914997623</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>131.8101289816367</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.164651077378</v>
       </c>
       <c r="H28" t="n">
-        <v>154.8803628811029</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>130.6005298925735</v>
       </c>
       <c r="J28" t="n">
-        <v>34.9377706442593</v>
+        <v>34.93777064425929</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>286.2739569047956</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24686,19 +24686,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.4605803604186</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>320.608810155027</v>
       </c>
       <c r="I29" t="n">
-        <v>135.0202420653509</v>
+        <v>139.4561258631989</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,10 +24725,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>34.15171357119077</v>
+        <v>34.15171357119075</v>
       </c>
       <c r="S29" t="n">
-        <v>167.0419134231436</v>
+        <v>136.5011628891541</v>
       </c>
       <c r="T29" t="n">
         <v>215.03180661936</v>
@@ -24740,7 +24740,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24853,13 +24853,13 @@
         <v>167.164651077378</v>
       </c>
       <c r="H31" t="n">
-        <v>125.0488586185578</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>130.6005298925735</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>34.93777064425929</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,22 +24880,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>16.96831782410011</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>140.1386670296631</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>185.9348105754823</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2739569047956</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,16 +24917,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24935,7 +24935,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>139.4561258631989</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>34.15171357119077</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>167.0419134231436</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>18.88126329169327</v>
+        <v>27.09550085766946</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24980,10 +24980,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25075,25 +25075,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>141.5461447640851</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.164651077378</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>154.8803628811029</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>130.6005298925735</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,19 +25129,19 @@
         <v>224.4149140454817</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2739569047956</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>207.0585469174271</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,13 +25154,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25199,28 +25199,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>34.15171357119077</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>215.03180661936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1982803354592</v>
+        <v>69.87781465722213</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>338.6481868553364</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25333,7 +25333,7 @@
         <v>130.6005298925735</v>
       </c>
       <c r="J37" t="n">
-        <v>34.9377706442593</v>
+        <v>34.93777064425929</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25360,25 +25360,25 @@
         <v>140.1386670296631</v>
       </c>
       <c r="S37" t="n">
-        <v>209.6159497203184</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>224.4149140454817</v>
       </c>
       <c r="U37" t="n">
-        <v>38.42694514627306</v>
+        <v>286.2739569047956</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>214.4814063230742</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25409,7 +25409,7 @@
         <v>320.608810155027</v>
       </c>
       <c r="I38" t="n">
-        <v>139.4561258631989</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>34.15171357119077</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>167.0419134231436</v>
+        <v>61.16973232332525</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1982803354592</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>237.8185645258771</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25570,7 +25570,7 @@
         <v>130.6005298925735</v>
       </c>
       <c r="J40" t="n">
-        <v>34.9377706442593</v>
+        <v>34.93777064425929</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>16.96831782410011</v>
       </c>
       <c r="R40" t="n">
-        <v>140.1386670296631</v>
+        <v>73.93583428131716</v>
       </c>
       <c r="S40" t="n">
-        <v>209.6159497203184</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>224.4149140454817</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2739569047956</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>4.8654566027557</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>169.1719556365415</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.4605803604186</v>
       </c>
       <c r="H41" t="n">
         <v>320.608810155027</v>
       </c>
       <c r="I41" t="n">
-        <v>139.4561258631989</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25676,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T41" t="n">
         <v>215.03180661936</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1982803354592</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>108.771269145825</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.20290304854663</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,10 +25792,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>78.1443124919456</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.164651077378</v>
@@ -25807,7 +25807,7 @@
         <v>130.6005298925735</v>
       </c>
       <c r="J43" t="n">
-        <v>34.9377706442593</v>
+        <v>34.93777064425929</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,31 +25828,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>16.96831782410011</v>
       </c>
       <c r="R43" t="n">
         <v>140.1386670296631</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>209.6159497203184</v>
       </c>
       <c r="T43" t="n">
         <v>224.4149140454817</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2739569047956</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25865,13 +25865,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25910,13 +25910,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>34.15171357119075</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>167.0419134231436</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>41.12878962081865</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25925,13 +25925,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>257.2198353492695</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>143.25466532588</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,19 +26032,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.3719178397816</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>130.6005298925735</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.93777064425929</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>706743.9143517951</v>
+        <v>706743.9143517952</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>706743.9143517951</v>
+        <v>706743.9143517952</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>706743.9143517952</v>
+        <v>706743.9143517951</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>706743.9143517951</v>
+        <v>706743.9143517952</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>706743.9143517951</v>
+        <v>706743.9143517952</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>706743.9143517951</v>
+        <v>706743.9143517952</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>706743.9143517952</v>
+        <v>706743.9143517951</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>706743.9143517951</v>
+        <v>706743.9143517952</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185698</v>
@@ -26323,34 +26323,34 @@
         <v>368735.9553139795</v>
       </c>
       <c r="F2" t="n">
-        <v>368735.9553139794</v>
+        <v>368735.9553139796</v>
       </c>
       <c r="G2" t="n">
         <v>368735.9553139795</v>
       </c>
       <c r="H2" t="n">
-        <v>368735.9553139796</v>
+        <v>368735.9553139797</v>
       </c>
       <c r="I2" t="n">
         <v>368735.9553139795</v>
       </c>
       <c r="J2" t="n">
-        <v>368735.9553139795</v>
+        <v>368735.9553139796</v>
       </c>
       <c r="K2" t="n">
         <v>368735.9553139795</v>
       </c>
       <c r="L2" t="n">
-        <v>368735.9553139794</v>
+        <v>368735.9553139795</v>
       </c>
       <c r="M2" t="n">
-        <v>368735.9553139795</v>
+        <v>368735.9553139797</v>
       </c>
       <c r="N2" t="n">
-        <v>368735.9553139795</v>
+        <v>368735.9553139796</v>
       </c>
       <c r="O2" t="n">
-        <v>368735.9553139795</v>
+        <v>368735.9553139796</v>
       </c>
       <c r="P2" t="n">
         <v>368735.9553139796</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92587.18968571312</v>
+        <v>92587.18968571318</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142519.2600928463</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>142519.2600928463</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>142519.2600928463</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>3900.232358724966</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="F4" t="n">
-        <v>3900.232358724966</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="G4" t="n">
-        <v>3900.232358724966</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="H4" t="n">
-        <v>3900.232358724966</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="I4" t="n">
-        <v>3900.232358724967</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="J4" t="n">
-        <v>3900.232358724967</v>
+        <v>560.2305089024956</v>
       </c>
       <c r="K4" t="n">
-        <v>3900.232358724966</v>
+        <v>560.2305089024956</v>
       </c>
       <c r="L4" t="n">
-        <v>3900.232358724967</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="M4" t="n">
-        <v>3900.232358724966</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="N4" t="n">
-        <v>3900.232358724967</v>
+        <v>560.2305089024956</v>
       </c>
       <c r="O4" t="n">
-        <v>3900.232358724966</v>
+        <v>560.2305089024954</v>
       </c>
       <c r="P4" t="n">
-        <v>3900.232358724966</v>
+        <v>560.2305089024954</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>56671.40811433503</v>
+        <v>56671.40811433502</v>
       </c>
       <c r="F5" t="n">
         <v>56671.40811433503</v>
@@ -26491,22 +26491,22 @@
         <v>56671.40811433503</v>
       </c>
       <c r="J5" t="n">
-        <v>56671.40811433502</v>
+        <v>56671.40811433503</v>
       </c>
       <c r="K5" t="n">
-        <v>56671.40811433502</v>
+        <v>56671.40811433503</v>
       </c>
       <c r="L5" t="n">
-        <v>56671.40811433502</v>
+        <v>56671.40811433503</v>
       </c>
       <c r="M5" t="n">
-        <v>56671.40811433502</v>
+        <v>56671.40811433503</v>
       </c>
       <c r="N5" t="n">
-        <v>56671.40811433502</v>
+        <v>56671.40811433503</v>
       </c>
       <c r="O5" t="n">
-        <v>56671.40811433502</v>
+        <v>56671.40811433503</v>
       </c>
       <c r="P5" t="n">
         <v>56671.40811433503</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322721.1554522304</v>
+        <v>-319261.0345400029</v>
       </c>
       <c r="C6" t="n">
-        <v>267246.723762314</v>
+        <v>270706.8446745413</v>
       </c>
       <c r="D6" t="n">
-        <v>267246.7237623141</v>
+        <v>270706.8446745414</v>
       </c>
       <c r="E6" t="n">
-        <v>215577.1251552064</v>
+        <v>218917.1270050288</v>
       </c>
       <c r="F6" t="n">
-        <v>308164.3148409194</v>
+        <v>311504.316690742</v>
       </c>
       <c r="G6" t="n">
-        <v>308164.3148409195</v>
+        <v>311504.316690742</v>
       </c>
       <c r="H6" t="n">
-        <v>308164.3148409196</v>
+        <v>311504.3166907422</v>
       </c>
       <c r="I6" t="n">
-        <v>308164.3148409195</v>
+        <v>311504.3166907419</v>
       </c>
       <c r="J6" t="n">
-        <v>131741.0956483266</v>
+        <v>135081.0974981492</v>
       </c>
       <c r="K6" t="n">
-        <v>308164.3148409195</v>
+        <v>311504.316690742</v>
       </c>
       <c r="L6" t="n">
-        <v>308164.3148409194</v>
+        <v>311504.316690742</v>
       </c>
       <c r="M6" t="n">
-        <v>284862.1660187056</v>
+        <v>288202.1678685283</v>
       </c>
       <c r="N6" t="n">
-        <v>308164.3148409195</v>
+        <v>311504.316690742</v>
       </c>
       <c r="O6" t="n">
-        <v>308164.3148409195</v>
+        <v>311504.3166907421</v>
       </c>
       <c r="P6" t="n">
-        <v>308164.3148409196</v>
+        <v>311504.3166907421</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>458.2365922357237</v>
@@ -26790,13 +26790,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
-        <v>767.7935921644121</v>
+        <v>767.793592164412</v>
       </c>
       <c r="F4" t="n">
         <v>767.7935921644121</v>
@@ -26811,22 +26811,22 @@
         <v>767.7935921644121</v>
       </c>
       <c r="J4" t="n">
-        <v>767.793592164412</v>
+        <v>767.7935921644121</v>
       </c>
       <c r="K4" t="n">
-        <v>767.793592164412</v>
+        <v>767.7935921644121</v>
       </c>
       <c r="L4" t="n">
-        <v>767.793592164412</v>
+        <v>767.7935921644121</v>
       </c>
       <c r="M4" t="n">
-        <v>767.793592164412</v>
+        <v>767.7935921644121</v>
       </c>
       <c r="N4" t="n">
-        <v>767.793592164412</v>
+        <v>767.7935921644121</v>
       </c>
       <c r="O4" t="n">
-        <v>767.793592164412</v>
+        <v>767.7935921644121</v>
       </c>
       <c r="P4" t="n">
         <v>767.7935921644121</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>80.49292801863697</v>
+        <v>80.49292801863703</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>205.836063383079</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>56.88594938657951</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>56.82580834555246</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787166</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>100.1879899763192</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>351.5800430877232</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>8.478694077866805</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>111.9123060768161</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>128.1430790558422</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>72.23429941705035</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>14.29463023043695</v>
       </c>
       <c r="E10" t="n">
-        <v>22.21426855158853</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993417</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31841,13 +31841,13 @@
         <v>93.12145691839363</v>
       </c>
       <c r="K12" t="n">
-        <v>159.1594020409683</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>214.0094575342406</v>
       </c>
       <c r="M12" t="n">
-        <v>249.7389427684694</v>
+        <v>125.1798624922205</v>
       </c>
       <c r="N12" t="n">
         <v>256.3487894621338</v>
@@ -31859,7 +31859,7 @@
         <v>188.2141957807447</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.8162054757406</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>61.19619999706516</v>
@@ -31993,7 +31993,7 @@
         <v>18.86599196074011</v>
       </c>
       <c r="I14" t="n">
-        <v>71.01976370720701</v>
+        <v>71.01976370720699</v>
       </c>
       <c r="J14" t="n">
         <v>156.3507858101176</v>
@@ -32008,22 +32008,22 @@
         <v>323.4666774931096</v>
       </c>
       <c r="N14" t="n">
-        <v>328.7007065089479</v>
+        <v>328.7007065089478</v>
       </c>
       <c r="O14" t="n">
-        <v>310.3827563017359</v>
+        <v>310.3827563017358</v>
       </c>
       <c r="P14" t="n">
         <v>264.9045015446728</v>
       </c>
       <c r="Q14" t="n">
-        <v>198.932248441389</v>
+        <v>198.9322484413889</v>
       </c>
       <c r="R14" t="n">
         <v>115.7174043699589</v>
       </c>
       <c r="S14" t="n">
-        <v>41.97815616310174</v>
+        <v>41.97815616310173</v>
       </c>
       <c r="T14" t="n">
         <v>8.064042944771376</v>
@@ -32066,19 +32066,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9856409719787266</v>
+        <v>0.9856409719787264</v>
       </c>
       <c r="H15" t="n">
-        <v>9.519216755689282</v>
+        <v>9.51921675568928</v>
       </c>
       <c r="I15" t="n">
-        <v>33.93544574575879</v>
+        <v>33.93544574575878</v>
       </c>
       <c r="J15" t="n">
-        <v>93.12145691839365</v>
+        <v>93.12145691839363</v>
       </c>
       <c r="K15" t="n">
-        <v>159.1594020409683</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>214.0094575342406</v>
@@ -32093,10 +32093,10 @@
         <v>234.5090605567104</v>
       </c>
       <c r="P15" t="n">
-        <v>188.2141957807447</v>
+        <v>63.65511550449571</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.8162054757406</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>61.19619999706516</v>
@@ -32105,10 +32105,10 @@
         <v>18.30784875583291</v>
       </c>
       <c r="T15" t="n">
-        <v>3.972824794949339</v>
+        <v>3.972824794949338</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06484480078807414</v>
+        <v>0.06484480078807413</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8263282810808131</v>
+        <v>0.826328281080813</v>
       </c>
       <c r="H16" t="n">
-        <v>7.34680962633669</v>
+        <v>7.346809626336689</v>
       </c>
       <c r="I16" t="n">
-        <v>24.84994503468483</v>
+        <v>24.84994503468482</v>
       </c>
       <c r="J16" t="n">
-        <v>58.42140947241349</v>
+        <v>58.42140947241348</v>
       </c>
       <c r="K16" t="n">
-        <v>96.00432211102536</v>
+        <v>96.00432211102535</v>
       </c>
       <c r="L16" t="n">
         <v>122.8524791708693</v>
@@ -32172,7 +32172,7 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P16" t="n">
-        <v>99.94064955908304</v>
+        <v>99.94064955908303</v>
       </c>
       <c r="Q16" t="n">
         <v>69.19372542759427</v>
@@ -32187,7 +32187,7 @@
         <v>3.530675382799837</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04507245169531714</v>
+        <v>0.04507245169531713</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>159.1594020409683</v>
       </c>
       <c r="L18" t="n">
-        <v>214.0094575342406</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>249.7389427684694</v>
@@ -32333,7 +32333,7 @@
         <v>188.2141957807447</v>
       </c>
       <c r="Q18" t="n">
-        <v>125.8162054757406</v>
+        <v>22.66584080915921</v>
       </c>
       <c r="R18" t="n">
         <v>61.19619999706516</v>
@@ -32552,7 +32552,7 @@
         <v>93.12145691839365</v>
       </c>
       <c r="K21" t="n">
-        <v>159.1594020409683</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>214.0094575342406</v>
@@ -32567,10 +32567,10 @@
         <v>234.5090605567104</v>
       </c>
       <c r="P21" t="n">
-        <v>188.2141957807447</v>
+        <v>156.0299810966316</v>
       </c>
       <c r="Q21" t="n">
-        <v>125.8162054757406</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>61.19619999706516</v>
@@ -32704,7 +32704,7 @@
         <v>18.86599196074011</v>
       </c>
       <c r="I23" t="n">
-        <v>71.01976370720699</v>
+        <v>71.01976370720701</v>
       </c>
       <c r="J23" t="n">
         <v>156.3507858101176</v>
@@ -32719,22 +32719,22 @@
         <v>323.4666774931096</v>
       </c>
       <c r="N23" t="n">
-        <v>328.7007065089478</v>
+        <v>328.7007065089479</v>
       </c>
       <c r="O23" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017359</v>
       </c>
       <c r="P23" t="n">
         <v>264.9045015446728</v>
       </c>
       <c r="Q23" t="n">
-        <v>198.9322484413889</v>
+        <v>198.932248441389</v>
       </c>
       <c r="R23" t="n">
         <v>115.7174043699589</v>
       </c>
       <c r="S23" t="n">
-        <v>41.97815616310173</v>
+        <v>41.97815616310174</v>
       </c>
       <c r="T23" t="n">
         <v>8.064042944771376</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9856409719787264</v>
+        <v>0.9856409719787266</v>
       </c>
       <c r="H24" t="n">
-        <v>9.51921675568928</v>
+        <v>9.519216755689282</v>
       </c>
       <c r="I24" t="n">
-        <v>33.93544574575878</v>
+        <v>33.93544574575879</v>
       </c>
       <c r="J24" t="n">
-        <v>93.12145691839363</v>
+        <v>93.12145691839365</v>
       </c>
       <c r="K24" t="n">
         <v>159.1594020409683</v>
@@ -32795,10 +32795,10 @@
         <v>214.0094575342406</v>
       </c>
       <c r="M24" t="n">
-        <v>249.7389427684694</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>256.3487894621338</v>
+        <v>96.55304443764544</v>
       </c>
       <c r="O24" t="n">
         <v>234.5090605567104</v>
@@ -32816,10 +32816,10 @@
         <v>18.30784875583291</v>
       </c>
       <c r="T24" t="n">
-        <v>3.972824794949338</v>
+        <v>3.972824794949339</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06484480078807413</v>
+        <v>0.06484480078807414</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.826328281080813</v>
+        <v>0.8263282810808131</v>
       </c>
       <c r="H25" t="n">
-        <v>7.346809626336689</v>
+        <v>7.34680962633669</v>
       </c>
       <c r="I25" t="n">
-        <v>24.84994503468482</v>
+        <v>24.84994503468483</v>
       </c>
       <c r="J25" t="n">
-        <v>58.42140947241348</v>
+        <v>58.42140947241349</v>
       </c>
       <c r="K25" t="n">
-        <v>96.00432211102535</v>
+        <v>96.00432211102536</v>
       </c>
       <c r="L25" t="n">
         <v>122.8524791708693</v>
@@ -32883,7 +32883,7 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P25" t="n">
-        <v>99.94064955908303</v>
+        <v>99.94064955908304</v>
       </c>
       <c r="Q25" t="n">
         <v>69.19372542759427</v>
@@ -32898,7 +32898,7 @@
         <v>3.530675382799837</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04507245169531713</v>
+        <v>0.04507245169531714</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>18.86599196074011</v>
       </c>
       <c r="I26" t="n">
-        <v>71.01976370720699</v>
+        <v>71.01976370720701</v>
       </c>
       <c r="J26" t="n">
         <v>156.3507858101176</v>
@@ -32956,22 +32956,22 @@
         <v>323.4666774931096</v>
       </c>
       <c r="N26" t="n">
-        <v>328.7007065089478</v>
+        <v>328.7007065089479</v>
       </c>
       <c r="O26" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017359</v>
       </c>
       <c r="P26" t="n">
         <v>264.9045015446728</v>
       </c>
       <c r="Q26" t="n">
-        <v>198.9322484413889</v>
+        <v>198.932248441389</v>
       </c>
       <c r="R26" t="n">
         <v>115.7174043699589</v>
       </c>
       <c r="S26" t="n">
-        <v>41.97815616310173</v>
+        <v>41.97815616310174</v>
       </c>
       <c r="T26" t="n">
         <v>8.064042944771376</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9856409719787264</v>
+        <v>0.9856409719787266</v>
       </c>
       <c r="H27" t="n">
-        <v>9.51921675568928</v>
+        <v>9.519216755689282</v>
       </c>
       <c r="I27" t="n">
-        <v>33.93544574575878</v>
+        <v>33.93544574575879</v>
       </c>
       <c r="J27" t="n">
-        <v>93.12145691839363</v>
+        <v>93.12145691839365</v>
       </c>
       <c r="K27" t="n">
         <v>159.1594020409683</v>
@@ -33038,13 +33038,13 @@
         <v>256.3487894621338</v>
       </c>
       <c r="O27" t="n">
-        <v>234.5090605567104</v>
+        <v>139.0047740202377</v>
       </c>
       <c r="P27" t="n">
-        <v>188.2141957807447</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>125.8162054757406</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>61.19619999706516</v>
@@ -33053,10 +33053,10 @@
         <v>18.30784875583291</v>
       </c>
       <c r="T27" t="n">
-        <v>3.972824794949338</v>
+        <v>3.972824794949339</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06484480078807413</v>
+        <v>0.06484480078807414</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.826328281080813</v>
+        <v>0.8263282810808131</v>
       </c>
       <c r="H28" t="n">
-        <v>7.346809626336689</v>
+        <v>7.34680962633669</v>
       </c>
       <c r="I28" t="n">
-        <v>24.84994503468482</v>
+        <v>24.84994503468483</v>
       </c>
       <c r="J28" t="n">
-        <v>58.42140947241348</v>
+        <v>58.42140947241349</v>
       </c>
       <c r="K28" t="n">
-        <v>96.00432211102535</v>
+        <v>96.00432211102536</v>
       </c>
       <c r="L28" t="n">
         <v>122.8524791708693</v>
@@ -33120,7 +33120,7 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P28" t="n">
-        <v>99.94064955908303</v>
+        <v>99.94064955908304</v>
       </c>
       <c r="Q28" t="n">
         <v>69.19372542759427</v>
@@ -33135,7 +33135,7 @@
         <v>3.530675382799837</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04507245169531713</v>
+        <v>0.04507245169531714</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33178,7 @@
         <v>18.86599196074011</v>
       </c>
       <c r="I29" t="n">
-        <v>71.01976370720699</v>
+        <v>71.01976370720701</v>
       </c>
       <c r="J29" t="n">
         <v>156.3507858101176</v>
@@ -33193,22 +33193,22 @@
         <v>323.4666774931096</v>
       </c>
       <c r="N29" t="n">
-        <v>328.7007065089478</v>
+        <v>328.7007065089479</v>
       </c>
       <c r="O29" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017359</v>
       </c>
       <c r="P29" t="n">
         <v>264.9045015446728</v>
       </c>
       <c r="Q29" t="n">
-        <v>198.9322484413889</v>
+        <v>198.932248441389</v>
       </c>
       <c r="R29" t="n">
         <v>115.7174043699589</v>
       </c>
       <c r="S29" t="n">
-        <v>41.97815616310173</v>
+        <v>41.97815616310174</v>
       </c>
       <c r="T29" t="n">
         <v>8.064042944771376</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9856409719787264</v>
+        <v>0.9856409719787266</v>
       </c>
       <c r="H30" t="n">
-        <v>9.51921675568928</v>
+        <v>9.519216755689282</v>
       </c>
       <c r="I30" t="n">
-        <v>33.93544574575878</v>
+        <v>33.93544574575879</v>
       </c>
       <c r="J30" t="n">
-        <v>93.12145691839363</v>
+        <v>93.12145691839365</v>
       </c>
       <c r="K30" t="n">
         <v>159.1594020409683</v>
@@ -33269,7 +33269,7 @@
         <v>214.0094575342406</v>
       </c>
       <c r="M30" t="n">
-        <v>249.7389427684694</v>
+        <v>128.4908396932153</v>
       </c>
       <c r="N30" t="n">
         <v>256.3487894621338</v>
@@ -33290,10 +33290,10 @@
         <v>18.30784875583291</v>
       </c>
       <c r="T30" t="n">
-        <v>3.972824794949338</v>
+        <v>3.972824794949339</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06484480078807413</v>
+        <v>0.06484480078807414</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.826328281080813</v>
+        <v>0.8263282810808131</v>
       </c>
       <c r="H31" t="n">
-        <v>7.346809626336689</v>
+        <v>7.34680962633669</v>
       </c>
       <c r="I31" t="n">
-        <v>24.84994503468482</v>
+        <v>24.84994503468483</v>
       </c>
       <c r="J31" t="n">
-        <v>58.42140947241348</v>
+        <v>58.42140947241349</v>
       </c>
       <c r="K31" t="n">
-        <v>96.00432211102535</v>
+        <v>96.00432211102536</v>
       </c>
       <c r="L31" t="n">
         <v>122.8524791708693</v>
@@ -33357,7 +33357,7 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P31" t="n">
-        <v>99.94064955908303</v>
+        <v>99.94064955908304</v>
       </c>
       <c r="Q31" t="n">
         <v>69.19372542759427</v>
@@ -33372,7 +33372,7 @@
         <v>3.530675382799837</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04507245169531713</v>
+        <v>0.04507245169531714</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>18.86599196074011</v>
       </c>
       <c r="I32" t="n">
-        <v>71.01976370720699</v>
+        <v>71.01976370720701</v>
       </c>
       <c r="J32" t="n">
         <v>156.3507858101176</v>
@@ -33430,22 +33430,22 @@
         <v>323.4666774931096</v>
       </c>
       <c r="N32" t="n">
-        <v>328.7007065089478</v>
+        <v>328.7007065089479</v>
       </c>
       <c r="O32" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017359</v>
       </c>
       <c r="P32" t="n">
         <v>264.9045015446728</v>
       </c>
       <c r="Q32" t="n">
-        <v>198.9322484413889</v>
+        <v>198.932248441389</v>
       </c>
       <c r="R32" t="n">
         <v>115.7174043699589</v>
       </c>
       <c r="S32" t="n">
-        <v>41.97815616310173</v>
+        <v>41.97815616310174</v>
       </c>
       <c r="T32" t="n">
         <v>8.064042944771376</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9856409719787264</v>
+        <v>0.9856409719787266</v>
       </c>
       <c r="H33" t="n">
-        <v>9.51921675568928</v>
+        <v>9.519216755689282</v>
       </c>
       <c r="I33" t="n">
-        <v>33.93544574575878</v>
+        <v>33.93544574575879</v>
       </c>
       <c r="J33" t="n">
-        <v>93.12145691839363</v>
+        <v>93.12145691839365</v>
       </c>
       <c r="K33" t="n">
         <v>159.1594020409683</v>
@@ -33527,10 +33527,10 @@
         <v>18.30784875583291</v>
       </c>
       <c r="T33" t="n">
-        <v>3.972824794949338</v>
+        <v>3.972824794949339</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06484480078807413</v>
+        <v>0.06484480078807414</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.826328281080813</v>
+        <v>0.8263282810808131</v>
       </c>
       <c r="H34" t="n">
-        <v>7.346809626336689</v>
+        <v>7.34680962633669</v>
       </c>
       <c r="I34" t="n">
-        <v>24.84994503468482</v>
+        <v>24.84994503468483</v>
       </c>
       <c r="J34" t="n">
-        <v>58.42140947241348</v>
+        <v>58.42140947241349</v>
       </c>
       <c r="K34" t="n">
-        <v>96.00432211102535</v>
+        <v>96.00432211102536</v>
       </c>
       <c r="L34" t="n">
         <v>122.8524791708693</v>
@@ -33594,7 +33594,7 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P34" t="n">
-        <v>99.94064955908303</v>
+        <v>99.94064955908304</v>
       </c>
       <c r="Q34" t="n">
         <v>69.19372542759427</v>
@@ -33609,7 +33609,7 @@
         <v>3.530675382799837</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04507245169531713</v>
+        <v>0.04507245169531714</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>18.86599196074011</v>
       </c>
       <c r="I35" t="n">
-        <v>71.01976370720699</v>
+        <v>71.01976370720701</v>
       </c>
       <c r="J35" t="n">
         <v>156.3507858101176</v>
@@ -33667,22 +33667,22 @@
         <v>323.4666774931096</v>
       </c>
       <c r="N35" t="n">
-        <v>328.7007065089478</v>
+        <v>328.7007065089479</v>
       </c>
       <c r="O35" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017359</v>
       </c>
       <c r="P35" t="n">
         <v>264.9045015446728</v>
       </c>
       <c r="Q35" t="n">
-        <v>198.9322484413889</v>
+        <v>198.932248441389</v>
       </c>
       <c r="R35" t="n">
         <v>115.7174043699589</v>
       </c>
       <c r="S35" t="n">
-        <v>41.97815616310173</v>
+        <v>41.97815616310174</v>
       </c>
       <c r="T35" t="n">
         <v>8.064042944771376</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9856409719787264</v>
+        <v>0.9856409719787266</v>
       </c>
       <c r="H36" t="n">
-        <v>9.51921675568928</v>
+        <v>9.519216755689282</v>
       </c>
       <c r="I36" t="n">
-        <v>33.93544574575878</v>
+        <v>33.93544574575879</v>
       </c>
       <c r="J36" t="n">
-        <v>93.12145691839363</v>
+        <v>93.12145691839365</v>
       </c>
       <c r="K36" t="n">
         <v>159.1594020409683</v>
@@ -33764,10 +33764,10 @@
         <v>18.30784875583291</v>
       </c>
       <c r="T36" t="n">
-        <v>3.972824794949338</v>
+        <v>3.972824794949339</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06484480078807413</v>
+        <v>0.06484480078807414</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.826328281080813</v>
+        <v>0.8263282810808131</v>
       </c>
       <c r="H37" t="n">
-        <v>7.346809626336689</v>
+        <v>7.34680962633669</v>
       </c>
       <c r="I37" t="n">
-        <v>24.84994503468482</v>
+        <v>24.84994503468483</v>
       </c>
       <c r="J37" t="n">
-        <v>58.42140947241348</v>
+        <v>58.42140947241349</v>
       </c>
       <c r="K37" t="n">
-        <v>96.00432211102535</v>
+        <v>96.00432211102536</v>
       </c>
       <c r="L37" t="n">
         <v>122.8524791708693</v>
@@ -33831,7 +33831,7 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P37" t="n">
-        <v>99.94064955908303</v>
+        <v>99.94064955908304</v>
       </c>
       <c r="Q37" t="n">
         <v>69.19372542759427</v>
@@ -33846,7 +33846,7 @@
         <v>3.530675382799837</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04507245169531713</v>
+        <v>0.04507245169531714</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,7 +33889,7 @@
         <v>18.86599196074011</v>
       </c>
       <c r="I38" t="n">
-        <v>71.01976370720699</v>
+        <v>71.01976370720701</v>
       </c>
       <c r="J38" t="n">
         <v>156.3507858101176</v>
@@ -33904,22 +33904,22 @@
         <v>323.4666774931096</v>
       </c>
       <c r="N38" t="n">
-        <v>328.7007065089478</v>
+        <v>328.7007065089479</v>
       </c>
       <c r="O38" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017359</v>
       </c>
       <c r="P38" t="n">
         <v>264.9045015446728</v>
       </c>
       <c r="Q38" t="n">
-        <v>198.9322484413889</v>
+        <v>198.932248441389</v>
       </c>
       <c r="R38" t="n">
         <v>115.7174043699589</v>
       </c>
       <c r="S38" t="n">
-        <v>41.97815616310173</v>
+        <v>41.97815616310174</v>
       </c>
       <c r="T38" t="n">
         <v>8.064042944771376</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9856409719787264</v>
+        <v>0.9856409719787266</v>
       </c>
       <c r="H39" t="n">
-        <v>9.51921675568928</v>
+        <v>9.519216755689282</v>
       </c>
       <c r="I39" t="n">
-        <v>33.93544574575878</v>
+        <v>33.93544574575879</v>
       </c>
       <c r="J39" t="n">
-        <v>93.12145691839363</v>
+        <v>93.12145691839365</v>
       </c>
       <c r="K39" t="n">
         <v>159.1594020409683</v>
@@ -33986,13 +33986,13 @@
         <v>256.3487894621338</v>
       </c>
       <c r="O39" t="n">
-        <v>234.5090605567104</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>188.2141957807447</v>
       </c>
       <c r="Q39" t="n">
-        <v>125.8162054757406</v>
+        <v>43.16544383162891</v>
       </c>
       <c r="R39" t="n">
         <v>61.19619999706516</v>
@@ -34001,10 +34001,10 @@
         <v>18.30784875583291</v>
       </c>
       <c r="T39" t="n">
-        <v>3.972824794949338</v>
+        <v>3.972824794949339</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06484480078807413</v>
+        <v>0.06484480078807414</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.826328281080813</v>
+        <v>0.8263282810808131</v>
       </c>
       <c r="H40" t="n">
-        <v>7.346809626336689</v>
+        <v>7.34680962633669</v>
       </c>
       <c r="I40" t="n">
-        <v>24.84994503468482</v>
+        <v>24.84994503468483</v>
       </c>
       <c r="J40" t="n">
-        <v>58.42140947241348</v>
+        <v>58.42140947241349</v>
       </c>
       <c r="K40" t="n">
-        <v>96.00432211102535</v>
+        <v>96.00432211102536</v>
       </c>
       <c r="L40" t="n">
         <v>122.8524791708693</v>
@@ -34068,7 +34068,7 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P40" t="n">
-        <v>99.94064955908303</v>
+        <v>99.94064955908304</v>
       </c>
       <c r="Q40" t="n">
         <v>69.19372542759427</v>
@@ -34083,7 +34083,7 @@
         <v>3.530675382799837</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04507245169531713</v>
+        <v>0.04507245169531714</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>18.86599196074011</v>
       </c>
       <c r="I41" t="n">
-        <v>71.01976370720699</v>
+        <v>71.01976370720701</v>
       </c>
       <c r="J41" t="n">
         <v>156.3507858101176</v>
@@ -34141,22 +34141,22 @@
         <v>323.4666774931096</v>
       </c>
       <c r="N41" t="n">
-        <v>328.7007065089478</v>
+        <v>328.7007065089479</v>
       </c>
       <c r="O41" t="n">
-        <v>310.3827563017358</v>
+        <v>310.3827563017359</v>
       </c>
       <c r="P41" t="n">
         <v>264.9045015446728</v>
       </c>
       <c r="Q41" t="n">
-        <v>198.9322484413889</v>
+        <v>198.932248441389</v>
       </c>
       <c r="R41" t="n">
         <v>115.7174043699589</v>
       </c>
       <c r="S41" t="n">
-        <v>41.97815616310173</v>
+        <v>41.97815616310174</v>
       </c>
       <c r="T41" t="n">
         <v>8.064042944771376</v>
@@ -34199,19 +34199,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9856409719787264</v>
+        <v>0.9856409719787266</v>
       </c>
       <c r="H42" t="n">
-        <v>9.51921675568928</v>
+        <v>9.519216755689282</v>
       </c>
       <c r="I42" t="n">
-        <v>33.93544574575878</v>
+        <v>33.93544574575879</v>
       </c>
       <c r="J42" t="n">
-        <v>93.12145691839363</v>
+        <v>93.12145691839365</v>
       </c>
       <c r="K42" t="n">
-        <v>159.1594020409683</v>
+        <v>68.08748288794749</v>
       </c>
       <c r="L42" t="n">
         <v>214.0094575342406</v>
@@ -34238,10 +34238,10 @@
         <v>18.30784875583291</v>
       </c>
       <c r="T42" t="n">
-        <v>3.972824794949338</v>
+        <v>3.972824794949339</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06484480078807413</v>
+        <v>0.06484480078807414</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.826328281080813</v>
+        <v>0.8263282810808131</v>
       </c>
       <c r="H43" t="n">
-        <v>7.346809626336689</v>
+        <v>7.34680962633669</v>
       </c>
       <c r="I43" t="n">
-        <v>24.84994503468482</v>
+        <v>24.84994503468483</v>
       </c>
       <c r="J43" t="n">
-        <v>58.42140947241348</v>
+        <v>58.42140947241349</v>
       </c>
       <c r="K43" t="n">
-        <v>96.00432211102535</v>
+        <v>96.00432211102536</v>
       </c>
       <c r="L43" t="n">
         <v>122.8524791708693</v>
@@ -34305,7 +34305,7 @@
         <v>116.7977464931317</v>
       </c>
       <c r="P43" t="n">
-        <v>99.94064955908303</v>
+        <v>99.94064955908304</v>
       </c>
       <c r="Q43" t="n">
         <v>69.19372542759427</v>
@@ -34320,7 +34320,7 @@
         <v>3.530675382799837</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04507245169531713</v>
+        <v>0.04507245169531714</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,13 +34448,13 @@
         <v>93.12145691839365</v>
       </c>
       <c r="K45" t="n">
-        <v>159.1594020409683</v>
+        <v>91.73852260861545</v>
       </c>
       <c r="L45" t="n">
         <v>214.0094575342406</v>
       </c>
       <c r="M45" t="n">
-        <v>249.7389427684694</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>256.3487894621338</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279158</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>92.37486559213578</v>
       </c>
       <c r="K12" t="n">
-        <v>21.31796306660931</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>393.6008378695822</v>
+        <v>446.2954230578256</v>
       </c>
       <c r="M12" t="n">
-        <v>573.309972596451</v>
+        <v>448.7508923202021</v>
       </c>
       <c r="N12" t="n">
         <v>604.3494517223539</v>
@@ -35507,7 +35507,7 @@
         <v>372.7025570063516</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.9117191255682</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>144.4014964555051</v>
       </c>
       <c r="K14" t="n">
-        <v>338.3848596954503</v>
+        <v>338.3848596954502</v>
       </c>
       <c r="L14" t="n">
         <v>472.6010147733837</v>
@@ -35665,7 +35665,7 @@
         <v>355.4702139608859</v>
       </c>
       <c r="Q14" t="n">
-        <v>188.9415492268442</v>
+        <v>188.9415492268441</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>92.37486559213579</v>
+        <v>92.37486559213578</v>
       </c>
       <c r="K15" t="n">
-        <v>285.7832000791879</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>446.2954230578256</v>
@@ -35735,16 +35735,16 @@
         <v>573.309972596451</v>
       </c>
       <c r="N15" t="n">
-        <v>194.8147639293962</v>
+        <v>604.3494517223539</v>
       </c>
       <c r="O15" t="n">
         <v>485.7751353889955</v>
       </c>
       <c r="P15" t="n">
-        <v>372.7025570063516</v>
+        <v>248.1434767301026</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.9117191255682</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>73.73483028514251</v>
+        <v>73.73483028514249</v>
       </c>
       <c r="L16" t="n">
         <v>150.4425044311854</v>
@@ -35820,7 +35820,7 @@
         <v>141.3828744071714</v>
       </c>
       <c r="P16" t="n">
-        <v>97.21920882397653</v>
+        <v>97.21920882397652</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>285.7832000791879</v>
       </c>
       <c r="L18" t="n">
-        <v>446.2954230578256</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>573.309972596451</v>
       </c>
       <c r="N18" t="n">
-        <v>483.1013486471002</v>
+        <v>604.349451722354</v>
       </c>
       <c r="O18" t="n">
         <v>485.7751353889955</v>
@@ -35981,7 +35981,7 @@
         <v>372.7025570063516</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>92.76135445898679</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>285.7832000791879</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>446.2954230578256</v>
@@ -36215,10 +36215,10 @@
         <v>485.7751353889955</v>
       </c>
       <c r="P21" t="n">
-        <v>251.4544539310978</v>
+        <v>340.5183423222385</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>144.4014964555051</v>
       </c>
       <c r="K23" t="n">
-        <v>338.3848596954502</v>
+        <v>338.3848596954503</v>
       </c>
       <c r="L23" t="n">
         <v>472.6010147733837</v>
@@ -36376,7 +36376,7 @@
         <v>355.4702139608859</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.9415492268441</v>
+        <v>188.9415492268442</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>92.37486559213579</v>
       </c>
       <c r="K24" t="n">
         <v>285.7832000791879</v>
@@ -36443,19 +36443,19 @@
         <v>446.2954230578256</v>
       </c>
       <c r="M24" t="n">
-        <v>573.309972596451</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>604.3494517223539</v>
+        <v>444.5537066978657</v>
       </c>
       <c r="O24" t="n">
         <v>485.7751353889955</v>
       </c>
       <c r="P24" t="n">
-        <v>251.4544539310978</v>
+        <v>372.7025570063516</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>195.9117191255682</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>73.73483028514249</v>
+        <v>73.73483028514251</v>
       </c>
       <c r="L25" t="n">
         <v>150.4425044311854</v>
@@ -36531,7 +36531,7 @@
         <v>141.3828744071714</v>
       </c>
       <c r="P25" t="n">
-        <v>97.21920882397652</v>
+        <v>97.21920882397653</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36595,7 +36595,7 @@
         <v>144.4014964555051</v>
       </c>
       <c r="K26" t="n">
-        <v>338.3848596954502</v>
+        <v>338.3848596954503</v>
       </c>
       <c r="L26" t="n">
         <v>472.6010147733837</v>
@@ -36613,7 +36613,7 @@
         <v>355.4702139608859</v>
       </c>
       <c r="Q26" t="n">
-        <v>188.9415492268441</v>
+        <v>188.9415492268442</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>92.37486559213579</v>
       </c>
       <c r="K27" t="n">
-        <v>164.5350970039341</v>
+        <v>285.7832000791879</v>
       </c>
       <c r="L27" t="n">
         <v>446.2954230578256</v>
@@ -36683,16 +36683,16 @@
         <v>573.309972596451</v>
       </c>
       <c r="N27" t="n">
-        <v>604.3494517223539</v>
+        <v>604.349451722354</v>
       </c>
       <c r="O27" t="n">
-        <v>485.7751353889955</v>
+        <v>390.2708488525228</v>
       </c>
       <c r="P27" t="n">
-        <v>372.7025570063516</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>73.73483028514249</v>
+        <v>73.73483028514251</v>
       </c>
       <c r="L28" t="n">
         <v>150.4425044311854</v>
@@ -36768,7 +36768,7 @@
         <v>141.3828744071714</v>
       </c>
       <c r="P28" t="n">
-        <v>97.21920882397652</v>
+        <v>97.21920882397653</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>144.4014964555051</v>
       </c>
       <c r="K29" t="n">
-        <v>338.3848596954502</v>
+        <v>338.3848596954503</v>
       </c>
       <c r="L29" t="n">
         <v>472.6010147733837</v>
@@ -36850,7 +36850,7 @@
         <v>355.4702139608859</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.9415492268441</v>
+        <v>188.9415492268442</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>53.6805231026372</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>285.7832000791879</v>
       </c>
       <c r="L30" t="n">
-        <v>75.45507775436641</v>
+        <v>446.2954230578256</v>
       </c>
       <c r="M30" t="n">
-        <v>573.309972596451</v>
+        <v>452.0618695211969</v>
       </c>
       <c r="N30" t="n">
-        <v>604.3494517223539</v>
+        <v>604.349451722354</v>
       </c>
       <c r="O30" t="n">
         <v>485.7751353889955</v>
@@ -36929,7 +36929,7 @@
         <v>372.7025570063516</v>
       </c>
       <c r="Q30" t="n">
-        <v>195.9117191255682</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>73.73483028514249</v>
+        <v>73.73483028514251</v>
       </c>
       <c r="L31" t="n">
         <v>150.4425044311854</v>
@@ -37005,7 +37005,7 @@
         <v>141.3828744071714</v>
       </c>
       <c r="P31" t="n">
-        <v>97.21920882397652</v>
+        <v>97.21920882397653</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>144.4014964555051</v>
       </c>
       <c r="K32" t="n">
-        <v>338.3848596954502</v>
+        <v>338.3848596954503</v>
       </c>
       <c r="L32" t="n">
         <v>472.6010147733837</v>
@@ -37087,7 +37087,7 @@
         <v>355.4702139608859</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.9415492268441</v>
+        <v>188.9415492268442</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>285.7832000791879</v>
       </c>
       <c r="L33" t="n">
-        <v>446.2954230578256</v>
+        <v>129.1356008570034</v>
       </c>
       <c r="M33" t="n">
         <v>573.309972596451</v>
       </c>
       <c r="N33" t="n">
-        <v>604.3494517223539</v>
+        <v>604.349451722354</v>
       </c>
       <c r="O33" t="n">
         <v>485.7751353889955</v>
       </c>
       <c r="P33" t="n">
-        <v>55.54273480552964</v>
+        <v>372.7025570063516</v>
       </c>
       <c r="Q33" t="n">
         <v>195.9117191255682</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>73.73483028514249</v>
+        <v>73.73483028514251</v>
       </c>
       <c r="L34" t="n">
         <v>150.4425044311854</v>
@@ -37242,7 +37242,7 @@
         <v>141.3828744071714</v>
       </c>
       <c r="P34" t="n">
-        <v>97.21920882397652</v>
+        <v>97.21920882397653</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>144.4014964555051</v>
       </c>
       <c r="K35" t="n">
-        <v>338.3848596954502</v>
+        <v>338.3848596954503</v>
       </c>
       <c r="L35" t="n">
         <v>472.6010147733837</v>
@@ -37324,7 +37324,7 @@
         <v>355.4702139608859</v>
       </c>
       <c r="Q35" t="n">
-        <v>188.9415492268441</v>
+        <v>188.9415492268442</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>92.37486559213579</v>
       </c>
       <c r="K36" t="n">
-        <v>21.31796306660931</v>
+        <v>285.7832000791879</v>
       </c>
       <c r="L36" t="n">
         <v>446.2954230578256</v>
       </c>
       <c r="M36" t="n">
-        <v>573.309972596451</v>
+        <v>163.775284803493</v>
       </c>
       <c r="N36" t="n">
-        <v>604.3494517223539</v>
+        <v>604.349451722354</v>
       </c>
       <c r="O36" t="n">
         <v>485.7751353889955</v>
@@ -37403,7 +37403,7 @@
         <v>372.7025570063516</v>
       </c>
       <c r="Q36" t="n">
-        <v>143.2171339373248</v>
+        <v>195.9117191255682</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>73.73483028514249</v>
+        <v>73.73483028514251</v>
       </c>
       <c r="L37" t="n">
         <v>150.4425044311854</v>
@@ -37479,7 +37479,7 @@
         <v>141.3828744071714</v>
       </c>
       <c r="P37" t="n">
-        <v>97.21920882397652</v>
+        <v>97.21920882397653</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>144.4014964555051</v>
       </c>
       <c r="K38" t="n">
-        <v>338.3848596954502</v>
+        <v>338.3848596954503</v>
       </c>
       <c r="L38" t="n">
         <v>472.6010147733837</v>
@@ -37561,7 +37561,7 @@
         <v>355.4702139608859</v>
       </c>
       <c r="Q38" t="n">
-        <v>188.9415492268441</v>
+        <v>188.9415492268442</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37631,16 +37631,16 @@
         <v>573.309972596451</v>
       </c>
       <c r="N39" t="n">
-        <v>604.3494517223539</v>
+        <v>604.349451722354</v>
       </c>
       <c r="O39" t="n">
-        <v>485.7751353889955</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>251.4544539310978</v>
+        <v>372.7025570063516</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>113.2609574814565</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>73.73483028514249</v>
+        <v>73.73483028514251</v>
       </c>
       <c r="L40" t="n">
         <v>150.4425044311854</v>
@@ -37716,7 +37716,7 @@
         <v>141.3828744071714</v>
       </c>
       <c r="P40" t="n">
-        <v>97.21920882397652</v>
+        <v>97.21920882397653</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>144.4014964555051</v>
       </c>
       <c r="K41" t="n">
-        <v>338.3848596954502</v>
+        <v>338.3848596954503</v>
       </c>
       <c r="L41" t="n">
         <v>472.6010147733837</v>
@@ -37798,7 +37798,7 @@
         <v>355.4702139608859</v>
       </c>
       <c r="Q41" t="n">
-        <v>188.9415492268441</v>
+        <v>188.9415492268442</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>92.37486559213579</v>
       </c>
       <c r="K42" t="n">
-        <v>285.7832000791879</v>
+        <v>194.7112809261671</v>
       </c>
       <c r="L42" t="n">
-        <v>129.1356008570036</v>
+        <v>446.2954230578256</v>
       </c>
       <c r="M42" t="n">
         <v>573.309972596451</v>
       </c>
       <c r="N42" t="n">
-        <v>604.3494517223539</v>
+        <v>604.349451722354</v>
       </c>
       <c r="O42" t="n">
         <v>485.7751353889955</v>
       </c>
       <c r="P42" t="n">
-        <v>372.7025570063516</v>
+        <v>54.23978836641447</v>
       </c>
       <c r="Q42" t="n">
         <v>195.9117191255682</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>73.73483028514249</v>
+        <v>73.73483028514251</v>
       </c>
       <c r="L43" t="n">
         <v>150.4425044311854</v>
@@ -37953,7 +37953,7 @@
         <v>141.3828744071714</v>
       </c>
       <c r="P43" t="n">
-        <v>97.21920882397652</v>
+        <v>97.21920882397653</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>144.4014964555051</v>
       </c>
       <c r="K44" t="n">
-        <v>338.3848596954503</v>
+        <v>338.3848596954502</v>
       </c>
       <c r="L44" t="n">
         <v>472.6010147733837</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>285.7832000791879</v>
+        <v>218.3623206468351</v>
       </c>
       <c r="L45" t="n">
         <v>446.2954230578256</v>
       </c>
       <c r="M45" t="n">
-        <v>573.309972596451</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
         <v>604.349451722354</v>
@@ -38111,10 +38111,10 @@
         <v>485.7751353889955</v>
       </c>
       <c r="P45" t="n">
-        <v>251.4544539310978</v>
+        <v>372.7025570063516</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>195.9117191255682</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
